--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_25_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_25_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>851121.3760246462</v>
+        <v>844670.3141042955</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>264.9098272115528</v>
+        <v>164.5057435296414</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115529</v>
       </c>
       <c r="I11" t="n">
-        <v>62.61993259844904</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.825254881377</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115529</v>
       </c>
       <c r="W11" t="n">
-        <v>170.7126432094867</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>79.59591233600509</v>
       </c>
       <c r="F12" t="n">
-        <v>4.707921741630305</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8275850600053</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>13.37438009968258</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>114.4192084551167</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.2341261174519</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.7539441251484</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>83.77347586928133</v>
+        <v>3.183332297257748</v>
       </c>
       <c r="S13" t="n">
-        <v>185.7152862203266</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>264.9098272115529</v>
       </c>
       <c r="V13" t="n">
-        <v>9.935878903986294</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115529</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>164.5057435296412</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.825254881377</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="Y14" t="n">
-        <v>233.3325758079358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2324783260453</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>94.79225745233522</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>114.4192084551167</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>171.055761932852</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>207.8946411849309</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.7066254932732</v>
       </c>
       <c r="H16" t="n">
-        <v>146.2341261174519</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.7539441251484</v>
+        <v>89.15046979626017</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T16" t="n">
-        <v>189.7048590560109</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>233.3325758079356</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>32.37619539955411</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.825254881377</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0409527385574</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>77.79349124842179</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>13.37438009968259</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>114.4192084551167</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>171.055761932852</v>
@@ -1988,7 +1988,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>73.1873907493223</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2443613714607</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.77347586928133</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>185.7152862203266</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.6664313308158</v>
+        <v>65.68821691894739</v>
       </c>
       <c r="U19" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>176.3746180026363</v>
       </c>
       <c r="I20" t="n">
-        <v>32.37619539955374</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T20" t="n">
         <v>212.825254881377</v>
@@ -2140,10 +2140,10 @@
         <v>253.0409527385574</v>
       </c>
       <c r="V20" t="n">
-        <v>264.9098272115526</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>264.9098272115526</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>117.8275850600053</v>
       </c>
       <c r="H21" t="n">
-        <v>77.45102300362777</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>11.9640518672333</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>114.4192084551167</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>171.055761932852</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.8946411849309</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>189.0487874016428</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.183332297257466</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.256419961288429</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>264.9098272115526</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>264.9098272115526</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="F23" t="n">
         <v>264.9098272115527</v>
       </c>
       <c r="G23" t="n">
-        <v>264.9098272115527</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>264.9098272115527</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>233.3325758079355</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.1925923309502745</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.8275850600053</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>77.45102300362777</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>13.37438009968259</v>
+        <v>13.37438009968258</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>114.4192084551167</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>171.055761932852</v>
       </c>
       <c r="U24" t="n">
-        <v>92.54292045110574</v>
+        <v>207.8946411849309</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>33.97615471801008</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>225.5779387516556</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>264.9098272115527</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>264.9098272115527</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>62.61993259844903</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>120.9114046084703</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>49.80123860101622</v>
+        <v>212.825254881377</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0409527385574</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>264.9098272115527</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>32.37619539955394</v>
       </c>
     </row>
     <row r="27">
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>7.101659608237139</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>61.43524630778522</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>83.77347586928133</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>185.7152862203266</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>264.9098272115527</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>255.5405495328254</v>
       </c>
       <c r="W28" t="n">
-        <v>0.6774850832331568</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="G29" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>233.3325758079358</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.825254881377</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>20.50732092655862</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13.37438009968258</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>134.503041931288</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>207.8946411849309</v>
@@ -2933,13 +2933,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>171.2483542638024</v>
       </c>
     </row>
     <row r="31">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>111.2121682862967</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.7066254932732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.2341261174519</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.7539441251484</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>83.77347586928133</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>185.7152862203266</v>
       </c>
       <c r="T31" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>73.16499021643477</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>164.5057435296413</v>
       </c>
       <c r="E32" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>32.37619539955411</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T32" t="n">
         <v>212.825254881377</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0409527385574</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>85.06203856863071</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>117.8275850600053</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>77.45102300362777</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>13.37438009968258</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>171.055761932852</v>
+        <v>63.76351002464667</v>
       </c>
       <c r="U33" t="n">
         <v>207.8946411849309</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>8.833264389792285</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>146.2341261174519</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.7539441251484</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>229.6664313308158</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>39.69050669399889</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,17 +3268,17 @@
         <v>264.9098272115527</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>233.3325758079356</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>264.9098272115527</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>233.3325758079356</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="Y35" t="n">
-        <v>264.9098272115527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>24.06771184102331</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.8275850600053</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>77.45102300362777</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>13.37438009968258</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>114.4192084551167</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8946411849309</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>214.0418811211982</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
@@ -3413,7 +3413,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.7066254932732</v>
+        <v>37.61741902996779</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>63.04701543660721</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>83.77347586928133</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>185.7152862203266</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>264.9098272115527</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="C38" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>233.3325758079356</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>170.7126432094868</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>62.61993259844903</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="Y38" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,16 +3584,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>89.81727702401979</v>
       </c>
       <c r="T39" t="n">
-        <v>105.5112767440685</v>
+        <v>171.055761932852</v>
       </c>
       <c r="U39" t="n">
-        <v>207.8946411849309</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -3663,10 +3663,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>146.2341261174519</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>257.2164430054719</v>
+        <v>48.56487502857336</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>170.7126432094868</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>62.61993259844903</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="X41" t="n">
-        <v>264.9098272115528</v>
+        <v>233.3325758079358</v>
       </c>
       <c r="Y41" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>7.101659608237361</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>7.450313229588095</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>114.4192084551167</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>171.055761932852</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>207.8946411849309</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>96.95839063538091</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.77347586928133</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>185.7152862203266</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>156.8521828895455</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3979,62 +3979,62 @@
         <v>264.9098272115528</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>264.9098272115528</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>264.9098272115528</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>233.3325758079358</v>
       </c>
-      <c r="D44" t="n">
-        <v>264.9098272115528</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>264.9098272115528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.8275850600053</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>114.4192084551167</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>171.055761932852</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8946411849309</v>
+        <v>4.781339072848036</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>70.20352590836833</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>165.7066254932732</v>
@@ -4155,7 +4155,7 @@
         <v>146.2341261174519</v>
       </c>
       <c r="I46" t="n">
-        <v>105.7539441251484</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>224.6246186924842</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0.01208178286041402</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>352.0309273991483</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="C11" t="n">
-        <v>352.0309273991483</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="D11" t="n">
-        <v>352.0309273991483</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="E11" t="n">
-        <v>352.0309273991483</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="F11" t="n">
-        <v>352.0309273991483</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="G11" t="n">
-        <v>352.0309273991483</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="H11" t="n">
-        <v>84.44524334707478</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="I11" t="n">
-        <v>21.19278617692422</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="J11" t="n">
-        <v>66.6999814434439</v>
+        <v>66.69998144344413</v>
       </c>
       <c r="K11" t="n">
         <v>167.8835074844192</v>
       </c>
       <c r="L11" t="n">
-        <v>317.3967640053165</v>
+        <v>317.3967640053166</v>
       </c>
       <c r="M11" t="n">
-        <v>504.3442043438559</v>
+        <v>504.3442043438561</v>
       </c>
       <c r="N11" t="n">
-        <v>697.3156251608458</v>
+        <v>697.3156251608459</v>
       </c>
       <c r="O11" t="n">
-        <v>870.8651460022309</v>
+        <v>870.865146002231</v>
       </c>
       <c r="P11" t="n">
-        <v>996.5599962719607</v>
+        <v>996.5599962719609</v>
       </c>
       <c r="Q11" t="n">
         <v>1059.639308846211</v>
@@ -5068,25 +5068,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S11" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184637</v>
       </c>
       <c r="T11" t="n">
-        <v>1059.639308846211</v>
+        <v>722.5315719877799</v>
       </c>
       <c r="U11" t="n">
-        <v>1059.639308846211</v>
+        <v>722.5315719877799</v>
       </c>
       <c r="V11" t="n">
-        <v>792.0536247941377</v>
+        <v>454.9458879357063</v>
       </c>
       <c r="W11" t="n">
-        <v>619.6166114512218</v>
+        <v>454.9458879357063</v>
       </c>
       <c r="X11" t="n">
-        <v>619.6166114512218</v>
+        <v>454.9458879357063</v>
       </c>
       <c r="Y11" t="n">
-        <v>619.6166114512218</v>
+        <v>454.9458879357063</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>281.4125162596079</v>
+        <v>245.1911398541183</v>
       </c>
       <c r="C12" t="n">
-        <v>281.4125162596079</v>
+        <v>245.1911398541183</v>
       </c>
       <c r="D12" t="n">
-        <v>281.4125162596079</v>
+        <v>115.1021724755986</v>
       </c>
       <c r="E12" t="n">
-        <v>144.9660253704956</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="F12" t="n">
-        <v>140.2105488637983</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="G12" t="n">
-        <v>21.19278617692422</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="H12" t="n">
-        <v>21.19278617692422</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="I12" t="n">
-        <v>21.19278617692422</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="J12" t="n">
         <v>162.0847476882125</v>
       </c>
       <c r="K12" t="n">
-        <v>238.3042966027546</v>
+        <v>238.3042966027547</v>
       </c>
       <c r="L12" t="n">
-        <v>370.9005379457609</v>
+        <v>370.900537945761</v>
       </c>
       <c r="M12" t="n">
-        <v>538.2160617443615</v>
+        <v>538.2160617443616</v>
       </c>
       <c r="N12" t="n">
-        <v>719.3255487902675</v>
+        <v>719.3255487902676</v>
       </c>
       <c r="O12" t="n">
-        <v>870.5624799478339</v>
+        <v>870.5624799478342</v>
       </c>
       <c r="P12" t="n">
-        <v>979.3769574270256</v>
+        <v>979.3769574270258</v>
       </c>
       <c r="Q12" t="n">
         <v>1019.669076260632</v>
@@ -5147,25 +5147,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S12" t="n">
-        <v>944.0643508107397</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T12" t="n">
-        <v>944.0643508107397</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U12" t="n">
-        <v>734.0697637552539</v>
+        <v>849.6447217907257</v>
       </c>
       <c r="V12" t="n">
-        <v>511.529762126321</v>
+        <v>627.1047201617928</v>
       </c>
       <c r="W12" t="n">
-        <v>281.4125162596079</v>
+        <v>396.9874742950797</v>
       </c>
       <c r="X12" t="n">
-        <v>281.4125162596079</v>
+        <v>396.9874742950797</v>
       </c>
       <c r="Y12" t="n">
-        <v>281.4125162596079</v>
+        <v>396.9874742950797</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>275.7261904623791</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="C13" t="n">
-        <v>275.7261904623791</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="D13" t="n">
-        <v>275.7261904623791</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="E13" t="n">
-        <v>275.7261904623791</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="F13" t="n">
-        <v>275.7261904623791</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="G13" t="n">
-        <v>275.7261904623791</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="H13" t="n">
-        <v>128.0149519599024</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="I13" t="n">
-        <v>21.19278617692422</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="J13" t="n">
-        <v>21.19278617692422</v>
+        <v>51.95514014370515</v>
       </c>
       <c r="K13" t="n">
-        <v>37.65215715325131</v>
+        <v>233.2695838627136</v>
       </c>
       <c r="L13" t="n">
-        <v>299.9128860926886</v>
+        <v>273.7706804557583</v>
       </c>
       <c r="M13" t="n">
-        <v>562.1736150321259</v>
+        <v>536.0314093951956</v>
       </c>
       <c r="N13" t="n">
-        <v>824.4343439715632</v>
+        <v>798.2921383346329</v>
       </c>
       <c r="O13" t="n">
-        <v>969.588529893748</v>
+        <v>969.5885298937483</v>
       </c>
       <c r="P13" t="n">
-        <v>984.5187730839762</v>
+        <v>984.5187730839764</v>
       </c>
       <c r="Q13" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="R13" t="n">
-        <v>975.0196362509776</v>
+        <v>1056.423821677264</v>
       </c>
       <c r="S13" t="n">
-        <v>787.4284380486274</v>
+        <v>1056.423821677264</v>
       </c>
       <c r="T13" t="n">
-        <v>787.4284380486274</v>
+        <v>1056.423821677264</v>
       </c>
       <c r="U13" t="n">
-        <v>787.4284380486274</v>
+        <v>788.8381376251905</v>
       </c>
       <c r="V13" t="n">
-        <v>777.3921967314695</v>
+        <v>522.8587924460147</v>
       </c>
       <c r="W13" t="n">
-        <v>509.8065126793961</v>
+        <v>255.2731083939411</v>
       </c>
       <c r="X13" t="n">
-        <v>275.7261904623791</v>
+        <v>21.19278617692423</v>
       </c>
       <c r="Y13" t="n">
-        <v>275.7261904623791</v>
+        <v>21.19278617692423</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>823.9498383331447</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="C14" t="n">
-        <v>823.9498383331447</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="D14" t="n">
-        <v>823.9498383331447</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="E14" t="n">
-        <v>556.3641542810713</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F14" t="n">
-        <v>288.7784702289978</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G14" t="n">
         <v>21.19278617692422</v>
@@ -5278,25 +5278,25 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J14" t="n">
-        <v>66.69998144344356</v>
+        <v>66.69998144344385</v>
       </c>
       <c r="K14" t="n">
-        <v>167.8835074844185</v>
+        <v>167.8835074844188</v>
       </c>
       <c r="L14" t="n">
-        <v>317.3967640053158</v>
+        <v>317.3967640053162</v>
       </c>
       <c r="M14" t="n">
-        <v>504.3442043438553</v>
+        <v>504.3442043438556</v>
       </c>
       <c r="N14" t="n">
-        <v>697.3156251608451</v>
+        <v>697.3156251608455</v>
       </c>
       <c r="O14" t="n">
-        <v>870.8651460022306</v>
+        <v>870.8651460022304</v>
       </c>
       <c r="P14" t="n">
-        <v>996.5599962719607</v>
+        <v>996.5599962719605</v>
       </c>
       <c r="Q14" t="n">
         <v>1059.639308846211</v>
@@ -5305,25 +5305,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S14" t="n">
-        <v>1059.639308846211</v>
+        <v>937.5065769184632</v>
       </c>
       <c r="T14" t="n">
-        <v>1059.639308846211</v>
+        <v>722.5315719877794</v>
       </c>
       <c r="U14" t="n">
-        <v>1059.639308846211</v>
+        <v>722.5315719877794</v>
       </c>
       <c r="V14" t="n">
-        <v>1059.639308846211</v>
+        <v>454.945887935706</v>
       </c>
       <c r="W14" t="n">
-        <v>1059.639308846211</v>
+        <v>454.945887935706</v>
       </c>
       <c r="X14" t="n">
-        <v>1059.639308846211</v>
+        <v>187.3602038836325</v>
       </c>
       <c r="Y14" t="n">
-        <v>823.9498383331447</v>
+        <v>187.3602038836325</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>331.1689199765692</v>
+        <v>396.9874742950792</v>
       </c>
       <c r="C15" t="n">
-        <v>331.1689199765692</v>
+        <v>396.9874742950792</v>
       </c>
       <c r="D15" t="n">
-        <v>295.5805580310689</v>
+        <v>266.8985069165595</v>
       </c>
       <c r="E15" t="n">
-        <v>159.1340671419566</v>
+        <v>130.4520160274473</v>
       </c>
       <c r="F15" t="n">
-        <v>34.70226102508845</v>
+        <v>130.4520160274473</v>
       </c>
       <c r="G15" t="n">
         <v>34.70226102508845</v>
@@ -5357,52 +5357,52 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J15" t="n">
-        <v>36.06495940012038</v>
+        <v>202.0549802737914</v>
       </c>
       <c r="K15" t="n">
-        <v>112.2845083146626</v>
+        <v>278.2745291883335</v>
       </c>
       <c r="L15" t="n">
-        <v>244.8807496576689</v>
+        <v>410.8707705313399</v>
       </c>
       <c r="M15" t="n">
-        <v>412.1962734562695</v>
+        <v>578.1862943299404</v>
       </c>
       <c r="N15" t="n">
-        <v>593.3057605021755</v>
+        <v>759.2957813758464</v>
       </c>
       <c r="O15" t="n">
-        <v>744.5426916597421</v>
+        <v>910.532712533413</v>
       </c>
       <c r="P15" t="n">
-        <v>853.3571691389337</v>
+        <v>1019.347190012605</v>
       </c>
       <c r="Q15" t="n">
-        <v>1019.669076260632</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R15" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="S15" t="n">
-        <v>944.0643508107397</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T15" t="n">
-        <v>771.280752898768</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U15" t="n">
-        <v>561.2861658432823</v>
+        <v>849.6447217907253</v>
       </c>
       <c r="V15" t="n">
-        <v>561.2861658432823</v>
+        <v>627.1047201617923</v>
       </c>
       <c r="W15" t="n">
-        <v>331.1689199765692</v>
+        <v>396.9874742950792</v>
       </c>
       <c r="X15" t="n">
-        <v>331.1689199765692</v>
+        <v>396.9874742950792</v>
       </c>
       <c r="Y15" t="n">
-        <v>331.1689199765692</v>
+        <v>396.9874742950792</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>600.4325550405913</v>
+        <v>604.4624265917873</v>
       </c>
       <c r="C16" t="n">
-        <v>600.4325550405913</v>
+        <v>434.2573086577765</v>
       </c>
       <c r="D16" t="n">
-        <v>600.4325550405913</v>
+        <v>278.6241955602913</v>
       </c>
       <c r="E16" t="n">
-        <v>600.4325550405913</v>
+        <v>278.6241955602913</v>
       </c>
       <c r="F16" t="n">
-        <v>443.1066202535642</v>
+        <v>278.6241955602913</v>
       </c>
       <c r="G16" t="n">
-        <v>275.7261904623791</v>
+        <v>111.2437657691062</v>
       </c>
       <c r="H16" t="n">
-        <v>128.0149519599024</v>
+        <v>111.2437657691062</v>
       </c>
       <c r="I16" t="n">
         <v>21.19278617692422</v>
       </c>
       <c r="J16" t="n">
-        <v>21.19278617692422</v>
+        <v>51.95514014370514</v>
       </c>
       <c r="K16" t="n">
-        <v>202.5072298959327</v>
+        <v>233.2695838627136</v>
       </c>
       <c r="L16" t="n">
-        <v>464.76795883537</v>
+        <v>273.7706804557583</v>
       </c>
       <c r="M16" t="n">
-        <v>509.5885704791813</v>
+        <v>536.0314093951956</v>
       </c>
       <c r="N16" t="n">
-        <v>558.4508399959617</v>
+        <v>584.8936789119761</v>
       </c>
       <c r="O16" t="n">
-        <v>761.084393511543</v>
+        <v>836.2049292737778</v>
       </c>
       <c r="P16" t="n">
-        <v>984.5187730839762</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="Q16" t="n">
         <v>1059.639308846211</v>
@@ -5463,25 +5463,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S16" t="n">
-        <v>1059.639308846211</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="T16" t="n">
-        <v>868.0182390926648</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="U16" t="n">
-        <v>600.4325550405913</v>
+        <v>604.4624265917873</v>
       </c>
       <c r="V16" t="n">
-        <v>600.4325550405913</v>
+        <v>604.4624265917873</v>
       </c>
       <c r="W16" t="n">
-        <v>600.4325550405913</v>
+        <v>604.4624265917873</v>
       </c>
       <c r="X16" t="n">
-        <v>600.4325550405913</v>
+        <v>604.4624265917873</v>
       </c>
       <c r="Y16" t="n">
-        <v>600.4325550405913</v>
+        <v>604.4624265917873</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.19278617692422</v>
+        <v>792.0536247941375</v>
       </c>
       <c r="C17" t="n">
-        <v>21.19278617692422</v>
+        <v>792.0536247941375</v>
       </c>
       <c r="D17" t="n">
-        <v>21.19278617692422</v>
+        <v>792.0536247941375</v>
       </c>
       <c r="E17" t="n">
-        <v>21.19278617692422</v>
+        <v>524.467940742064</v>
       </c>
       <c r="F17" t="n">
-        <v>21.19278617692422</v>
+        <v>256.8822566899905</v>
       </c>
       <c r="G17" t="n">
         <v>21.19278617692422</v>
@@ -5515,25 +5515,25 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J17" t="n">
-        <v>66.6999814434437</v>
+        <v>66.69998144344368</v>
       </c>
       <c r="K17" t="n">
-        <v>167.8835074844186</v>
+        <v>167.8835074844187</v>
       </c>
       <c r="L17" t="n">
-        <v>317.396764005316</v>
+        <v>317.3967640053161</v>
       </c>
       <c r="M17" t="n">
-        <v>504.3442043438554</v>
+        <v>504.3442043438555</v>
       </c>
       <c r="N17" t="n">
-        <v>697.3156251608452</v>
+        <v>697.3156251608453</v>
       </c>
       <c r="O17" t="n">
         <v>870.8651460022303</v>
       </c>
       <c r="P17" t="n">
-        <v>996.5599962719607</v>
+        <v>996.5599962719605</v>
       </c>
       <c r="Q17" t="n">
         <v>1059.639308846211</v>
@@ -5542,25 +5542,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S17" t="n">
-        <v>1026.936081169894</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T17" t="n">
-        <v>811.9610762392101</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U17" t="n">
-        <v>556.3641542810713</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="V17" t="n">
-        <v>288.7784702289978</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="W17" t="n">
-        <v>21.19278617692422</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="X17" t="n">
-        <v>21.19278617692422</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="Y17" t="n">
-        <v>21.19278617692422</v>
+        <v>1059.639308846211</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.70226102508845</v>
+        <v>145.6245922937924</v>
       </c>
       <c r="C18" t="n">
-        <v>34.70226102508845</v>
+        <v>145.6245922937924</v>
       </c>
       <c r="D18" t="n">
-        <v>34.70226102508845</v>
+        <v>145.6245922937924</v>
       </c>
       <c r="E18" t="n">
-        <v>34.70226102508845</v>
+        <v>145.6245922937924</v>
       </c>
       <c r="F18" t="n">
-        <v>34.70226102508845</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G18" t="n">
-        <v>34.70226102508845</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H18" t="n">
-        <v>34.70226102508845</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I18" t="n">
         <v>21.19278617692422</v>
       </c>
       <c r="J18" t="n">
-        <v>162.0847476882125</v>
+        <v>202.0549802737913</v>
       </c>
       <c r="K18" t="n">
-        <v>238.3042966027546</v>
+        <v>278.2745291883335</v>
       </c>
       <c r="L18" t="n">
-        <v>370.9005379457609</v>
+        <v>410.8707705313398</v>
       </c>
       <c r="M18" t="n">
-        <v>538.2160617443615</v>
+        <v>578.1862943299404</v>
       </c>
       <c r="N18" t="n">
-        <v>719.3255487902675</v>
+        <v>759.2957813758464</v>
       </c>
       <c r="O18" t="n">
-        <v>870.5624799478339</v>
+        <v>910.532712533413</v>
       </c>
       <c r="P18" t="n">
-        <v>979.3769574270256</v>
+        <v>1019.347190012605</v>
       </c>
       <c r="Q18" t="n">
-        <v>1019.669076260632</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R18" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="S18" t="n">
-        <v>944.0643508107397</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T18" t="n">
-        <v>771.280752898768</v>
+        <v>886.8557109342391</v>
       </c>
       <c r="U18" t="n">
-        <v>561.2861658432823</v>
+        <v>676.8611238787535</v>
       </c>
       <c r="V18" t="n">
-        <v>338.7461642143494</v>
+        <v>454.3211222498205</v>
       </c>
       <c r="W18" t="n">
-        <v>108.6289183476362</v>
+        <v>224.2038763831074</v>
       </c>
       <c r="X18" t="n">
-        <v>34.70226102508845</v>
+        <v>224.2038763831074</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.70226102508845</v>
+        <v>224.2038763831074</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>287.8564597230025</v>
+        <v>502.5898293492178</v>
       </c>
       <c r="C19" t="n">
-        <v>287.8564597230025</v>
+        <v>332.384711415207</v>
       </c>
       <c r="D19" t="n">
-        <v>287.8564597230025</v>
+        <v>176.7515983177217</v>
       </c>
       <c r="E19" t="n">
-        <v>287.8564597230025</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F19" t="n">
-        <v>130.5305249359754</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G19" t="n">
         <v>21.19278617692422</v>
@@ -5673,52 +5673,52 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J19" t="n">
-        <v>21.19278617692422</v>
+        <v>51.95514014370514</v>
       </c>
       <c r="K19" t="n">
-        <v>37.65215715325131</v>
+        <v>233.2695838627136</v>
       </c>
       <c r="L19" t="n">
-        <v>299.9128860926886</v>
+        <v>495.5303128021508</v>
       </c>
       <c r="M19" t="n">
-        <v>344.7334977364999</v>
+        <v>757.7910417415881</v>
       </c>
       <c r="N19" t="n">
-        <v>606.9942266759372</v>
+        <v>806.6533112583685</v>
       </c>
       <c r="O19" t="n">
-        <v>869.2549556153745</v>
+        <v>838.5820179481576</v>
       </c>
       <c r="P19" t="n">
-        <v>1059.639308846211</v>
+        <v>984.5187730839759</v>
       </c>
       <c r="Q19" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="R19" t="n">
-        <v>975.0196362509776</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S19" t="n">
-        <v>787.4284380486274</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T19" t="n">
-        <v>555.442143775076</v>
+        <v>993.2875745846479</v>
       </c>
       <c r="U19" t="n">
-        <v>287.8564597230025</v>
+        <v>725.7018905325745</v>
       </c>
       <c r="V19" t="n">
-        <v>287.8564597230025</v>
+        <v>725.7018905325745</v>
       </c>
       <c r="W19" t="n">
-        <v>287.8564597230025</v>
+        <v>725.7018905325745</v>
       </c>
       <c r="X19" t="n">
-        <v>287.8564597230025</v>
+        <v>725.7018905325745</v>
       </c>
       <c r="Y19" t="n">
-        <v>287.8564597230025</v>
+        <v>502.5898293492178</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.89601385324113</v>
+        <v>466.9346500296404</v>
       </c>
       <c r="C20" t="n">
-        <v>53.89601385324113</v>
+        <v>466.9346500296404</v>
       </c>
       <c r="D20" t="n">
-        <v>53.89601385324113</v>
+        <v>466.9346500296404</v>
       </c>
       <c r="E20" t="n">
-        <v>53.89601385324113</v>
+        <v>466.9346500296404</v>
       </c>
       <c r="F20" t="n">
-        <v>53.89601385324113</v>
+        <v>199.3489659775669</v>
       </c>
       <c r="G20" t="n">
-        <v>53.89601385324113</v>
+        <v>199.3489659775669</v>
       </c>
       <c r="H20" t="n">
-        <v>53.89601385324113</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I20" t="n">
-        <v>21.19278617692421</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J20" t="n">
-        <v>66.69998144344379</v>
+        <v>66.69998144344368</v>
       </c>
       <c r="K20" t="n">
         <v>167.8835074844187</v>
       </c>
       <c r="L20" t="n">
-        <v>317.396764005316</v>
+        <v>317.3967640053161</v>
       </c>
       <c r="M20" t="n">
-        <v>504.3442043438553</v>
+        <v>504.3442043438555</v>
       </c>
       <c r="N20" t="n">
-        <v>697.3156251608452</v>
+        <v>697.315625160845</v>
       </c>
       <c r="O20" t="n">
         <v>870.8651460022302</v>
       </c>
       <c r="P20" t="n">
-        <v>996.5599962719601</v>
+        <v>996.5599962719602</v>
       </c>
       <c r="Q20" t="n">
-        <v>1059.63930884621</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R20" t="n">
-        <v>1059.63930884621</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S20" t="n">
-        <v>1059.63930884621</v>
+        <v>937.506576918463</v>
       </c>
       <c r="T20" t="n">
-        <v>844.6643039155267</v>
+        <v>722.5315719877792</v>
       </c>
       <c r="U20" t="n">
-        <v>589.0673819573879</v>
+        <v>466.9346500296404</v>
       </c>
       <c r="V20" t="n">
-        <v>321.4816979053145</v>
+        <v>466.9346500296404</v>
       </c>
       <c r="W20" t="n">
-        <v>53.89601385324113</v>
+        <v>466.9346500296404</v>
       </c>
       <c r="X20" t="n">
-        <v>53.89601385324113</v>
+        <v>466.9346500296404</v>
       </c>
       <c r="Y20" t="n">
-        <v>53.89601385324113</v>
+        <v>466.9346500296404</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>491.407103315093</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="C21" t="n">
-        <v>491.407103315093</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="D21" t="n">
-        <v>491.407103315093</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="E21" t="n">
-        <v>354.9606124259807</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="F21" t="n">
-        <v>230.5288063091125</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="G21" t="n">
-        <v>111.5110436222384</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H21" t="n">
-        <v>33.27768705291744</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I21" t="n">
-        <v>21.19278617692421</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J21" t="n">
-        <v>36.06495940012034</v>
+        <v>162.0847476882117</v>
       </c>
       <c r="K21" t="n">
-        <v>112.2845083146625</v>
+        <v>238.3042966027539</v>
       </c>
       <c r="L21" t="n">
-        <v>244.8807496576688</v>
+        <v>370.9005379457603</v>
       </c>
       <c r="M21" t="n">
-        <v>412.1962734562693</v>
+        <v>538.2160617443609</v>
       </c>
       <c r="N21" t="n">
-        <v>593.3057605021752</v>
+        <v>719.3255487902669</v>
       </c>
       <c r="O21" t="n">
-        <v>744.5426916597416</v>
+        <v>870.5624799478335</v>
       </c>
       <c r="P21" t="n">
-        <v>853.3571691389332</v>
+        <v>979.3769574270251</v>
       </c>
       <c r="Q21" t="n">
         <v>1019.669076260631</v>
       </c>
       <c r="R21" t="n">
-        <v>1059.63930884621</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S21" t="n">
-        <v>944.064350810739</v>
+        <v>944.0643508107393</v>
       </c>
       <c r="T21" t="n">
-        <v>944.064350810739</v>
+        <v>771.2807528987676</v>
       </c>
       <c r="U21" t="n">
-        <v>944.064350810739</v>
+        <v>561.2861658432819</v>
       </c>
       <c r="V21" t="n">
-        <v>721.5243491818061</v>
+        <v>370.3277947305114</v>
       </c>
       <c r="W21" t="n">
-        <v>491.407103315093</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="X21" t="n">
-        <v>491.407103315093</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="Y21" t="n">
-        <v>491.407103315093</v>
+        <v>140.2105488637983</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.19278617692421</v>
+        <v>24.40827334587115</v>
       </c>
       <c r="C22" t="n">
-        <v>21.19278617692421</v>
+        <v>24.40827334587115</v>
       </c>
       <c r="D22" t="n">
-        <v>21.19278617692421</v>
+        <v>24.40827334587115</v>
       </c>
       <c r="E22" t="n">
-        <v>21.19278617692421</v>
+        <v>24.40827334587115</v>
       </c>
       <c r="F22" t="n">
-        <v>21.19278617692421</v>
+        <v>24.40827334587115</v>
       </c>
       <c r="G22" t="n">
-        <v>21.19278617692421</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H22" t="n">
-        <v>21.19278617692421</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I22" t="n">
-        <v>21.19278617692421</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="J22" t="n">
-        <v>51.95514014370512</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="K22" t="n">
-        <v>68.41451112003219</v>
+        <v>202.5072298959327</v>
       </c>
       <c r="L22" t="n">
-        <v>257.9268788376712</v>
+        <v>464.7679588353699</v>
       </c>
       <c r="M22" t="n">
-        <v>520.1876077771083</v>
+        <v>525.0819308175599</v>
       </c>
       <c r="N22" t="n">
-        <v>782.4483367165453</v>
+        <v>573.9442003343403</v>
       </c>
       <c r="O22" t="n">
-        <v>1044.709065655982</v>
+        <v>836.2049292737775</v>
       </c>
       <c r="P22" t="n">
-        <v>1059.63930884621</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="Q22" t="n">
-        <v>1059.63930884621</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R22" t="n">
-        <v>1054.329793733798</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S22" t="n">
-        <v>1054.329793733798</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T22" t="n">
-        <v>822.3434994602467</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U22" t="n">
-        <v>554.7578154081733</v>
+        <v>792.0536247941372</v>
       </c>
       <c r="V22" t="n">
-        <v>288.7784702289975</v>
+        <v>526.0742796149615</v>
       </c>
       <c r="W22" t="n">
-        <v>21.19278617692421</v>
+        <v>258.4885955628881</v>
       </c>
       <c r="X22" t="n">
-        <v>21.19278617692421</v>
+        <v>24.40827334587115</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.19278617692421</v>
+        <v>24.40827334587115</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>823.9498383331445</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="C23" t="n">
-        <v>823.9498383331445</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="D23" t="n">
-        <v>823.9498383331445</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="E23" t="n">
-        <v>823.9498383331445</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="F23" t="n">
-        <v>556.364154281071</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G23" t="n">
-        <v>288.7784702289977</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H23" t="n">
         <v>21.19278617692422</v>
@@ -5989,25 +5989,25 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J23" t="n">
-        <v>66.6999814434439</v>
+        <v>66.69998144344382</v>
       </c>
       <c r="K23" t="n">
-        <v>167.8835074844188</v>
+        <v>167.8835074844187</v>
       </c>
       <c r="L23" t="n">
         <v>317.3967640053161</v>
       </c>
       <c r="M23" t="n">
-        <v>504.3442043438555</v>
+        <v>504.3442043438556</v>
       </c>
       <c r="N23" t="n">
-        <v>697.3156251608453</v>
+        <v>697.3156251608455</v>
       </c>
       <c r="O23" t="n">
         <v>870.8651460022304</v>
       </c>
       <c r="P23" t="n">
-        <v>996.5599962719602</v>
+        <v>996.5599962719605</v>
       </c>
       <c r="Q23" t="n">
         <v>1059.639308846211</v>
@@ -6025,16 +6025,16 @@
         <v>1059.639308846211</v>
       </c>
       <c r="V23" t="n">
-        <v>823.9498383331445</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="W23" t="n">
-        <v>823.9498383331445</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="X23" t="n">
-        <v>823.9498383331445</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="Y23" t="n">
-        <v>823.9498383331445</v>
+        <v>823.9498383331447</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>498.4888385489155</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="C24" t="n">
-        <v>498.4888385489155</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="D24" t="n">
-        <v>368.3998711703958</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="E24" t="n">
-        <v>231.9533802812835</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="F24" t="n">
-        <v>231.9533802812835</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="G24" t="n">
-        <v>112.9356175944094</v>
+        <v>34.70226102508845</v>
       </c>
       <c r="H24" t="n">
         <v>34.70226102508845</v>
@@ -6068,52 +6068,52 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J24" t="n">
-        <v>36.06495940012036</v>
+        <v>36.06495940012037</v>
       </c>
       <c r="K24" t="n">
         <v>112.2845083146625</v>
       </c>
       <c r="L24" t="n">
-        <v>244.8807496576688</v>
+        <v>244.8807496576689</v>
       </c>
       <c r="M24" t="n">
-        <v>412.1962734562694</v>
+        <v>412.1962734562695</v>
       </c>
       <c r="N24" t="n">
-        <v>593.3057605021753</v>
+        <v>593.3057605021755</v>
       </c>
       <c r="O24" t="n">
-        <v>744.5426916597419</v>
+        <v>744.5426916597421</v>
       </c>
       <c r="P24" t="n">
-        <v>853.3571691389334</v>
+        <v>853.3571691389337</v>
       </c>
       <c r="Q24" t="n">
-        <v>1019.669076260631</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R24" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="S24" t="n">
-        <v>944.0643508107393</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T24" t="n">
-        <v>771.2807528987676</v>
+        <v>886.8557109342391</v>
       </c>
       <c r="U24" t="n">
-        <v>677.8030554734082</v>
+        <v>676.8611238787535</v>
       </c>
       <c r="V24" t="n">
-        <v>677.8030554734082</v>
+        <v>454.3211222498205</v>
       </c>
       <c r="W24" t="n">
-        <v>677.8030554734082</v>
+        <v>224.2038763831074</v>
       </c>
       <c r="X24" t="n">
-        <v>677.8030554734082</v>
+        <v>34.89679873311903</v>
       </c>
       <c r="Y24" t="n">
-        <v>498.4888385489155</v>
+        <v>34.89679873311903</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>381.3503654084304</v>
+        <v>191.397904110935</v>
       </c>
       <c r="C25" t="n">
-        <v>211.1452474744196</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="D25" t="n">
-        <v>55.5121343769344</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="E25" t="n">
         <v>21.19278617692422</v>
@@ -6150,16 +6150,16 @@
         <v>21.19278617692422</v>
       </c>
       <c r="K25" t="n">
-        <v>37.6521571532513</v>
+        <v>37.65215715325132</v>
       </c>
       <c r="L25" t="n">
-        <v>257.9268788376711</v>
+        <v>257.926878837671</v>
       </c>
       <c r="M25" t="n">
         <v>520.1876077771083</v>
       </c>
       <c r="N25" t="n">
-        <v>782.4483367165454</v>
+        <v>782.4483367165456</v>
       </c>
       <c r="O25" t="n">
         <v>1044.709065655983</v>
@@ -6174,25 +6174,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S25" t="n">
-        <v>872.0481106438606</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="T25" t="n">
-        <v>872.0481106438606</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="U25" t="n">
-        <v>872.0481106438606</v>
+        <v>644.1916068543097</v>
       </c>
       <c r="V25" t="n">
-        <v>872.0481106438606</v>
+        <v>644.1916068543097</v>
       </c>
       <c r="W25" t="n">
-        <v>604.4624265917871</v>
+        <v>376.6059228022363</v>
       </c>
       <c r="X25" t="n">
-        <v>604.4624265917871</v>
+        <v>376.6059228022363</v>
       </c>
       <c r="Y25" t="n">
-        <v>381.3503654084304</v>
+        <v>376.6059228022363</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>619.6166114512216</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="C26" t="n">
-        <v>352.0309273991481</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="D26" t="n">
-        <v>352.0309273991481</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="E26" t="n">
-        <v>84.44524334707475</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="F26" t="n">
-        <v>84.44524334707475</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="G26" t="n">
-        <v>84.44524334707475</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H26" t="n">
-        <v>84.44524334707475</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I26" t="n">
         <v>21.19278617692422</v>
       </c>
       <c r="J26" t="n">
-        <v>66.69998144344379</v>
+        <v>66.69998144344373</v>
       </c>
       <c r="K26" t="n">
         <v>167.8835074844188</v>
       </c>
       <c r="L26" t="n">
-        <v>317.3967640053161</v>
+        <v>317.3967640053162</v>
       </c>
       <c r="M26" t="n">
-        <v>504.3442043438555</v>
+        <v>504.3442043438556</v>
       </c>
       <c r="N26" t="n">
-        <v>697.3156251608455</v>
+        <v>697.3156251608452</v>
       </c>
       <c r="O26" t="n">
-        <v>870.8651460022305</v>
+        <v>870.8651460022304</v>
       </c>
       <c r="P26" t="n">
-        <v>996.5599962719602</v>
+        <v>996.5599962719605</v>
       </c>
       <c r="Q26" t="n">
         <v>1059.639308846211</v>
@@ -6253,25 +6253,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S26" t="n">
-        <v>937.506576918463</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T26" t="n">
-        <v>887.2022955032951</v>
+        <v>844.6643039155272</v>
       </c>
       <c r="U26" t="n">
-        <v>887.2022955032951</v>
+        <v>589.0673819573883</v>
       </c>
       <c r="V26" t="n">
-        <v>887.2022955032951</v>
+        <v>589.0673819573883</v>
       </c>
       <c r="W26" t="n">
-        <v>887.2022955032951</v>
+        <v>589.0673819573883</v>
       </c>
       <c r="X26" t="n">
-        <v>619.6166114512216</v>
+        <v>321.4816979053148</v>
       </c>
       <c r="Y26" t="n">
-        <v>619.6166114512216</v>
+        <v>288.7784702289977</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>145.6245922937924</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="C27" t="n">
-        <v>145.6245922937924</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="D27" t="n">
-        <v>145.6245922937924</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="E27" t="n">
-        <v>145.6245922937924</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="F27" t="n">
-        <v>21.19278617692422</v>
+        <v>28.3661797205981</v>
       </c>
       <c r="G27" t="n">
         <v>21.19278617692422</v>
@@ -6305,28 +6305,28 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J27" t="n">
-        <v>36.06495940012037</v>
+        <v>36.06495940012039</v>
       </c>
       <c r="K27" t="n">
-        <v>238.304296602754</v>
+        <v>112.2845083146626</v>
       </c>
       <c r="L27" t="n">
-        <v>370.9005379457603</v>
+        <v>244.8807496576689</v>
       </c>
       <c r="M27" t="n">
-        <v>538.2160617443609</v>
+        <v>412.1962734562695</v>
       </c>
       <c r="N27" t="n">
-        <v>719.3255487902669</v>
+        <v>593.3057605021755</v>
       </c>
       <c r="O27" t="n">
-        <v>870.5624799478335</v>
+        <v>744.5426916597421</v>
       </c>
       <c r="P27" t="n">
-        <v>979.3769574270251</v>
+        <v>853.3571691389337</v>
       </c>
       <c r="Q27" t="n">
-        <v>1019.669076260631</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R27" t="n">
         <v>1059.639308846211</v>
@@ -6338,19 +6338,19 @@
         <v>1059.639308846211</v>
       </c>
       <c r="U27" t="n">
-        <v>849.644721790725</v>
+        <v>849.6447217907253</v>
       </c>
       <c r="V27" t="n">
-        <v>627.1047201617921</v>
+        <v>627.1047201617923</v>
       </c>
       <c r="W27" t="n">
-        <v>396.987474295079</v>
+        <v>396.9874742950792</v>
       </c>
       <c r="X27" t="n">
-        <v>207.6803966450906</v>
+        <v>207.6803966450909</v>
       </c>
       <c r="Y27" t="n">
-        <v>145.6245922937924</v>
+        <v>28.3661797205981</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.19278617692422</v>
+        <v>348.7238388979621</v>
       </c>
       <c r="C28" t="n">
-        <v>21.19278617692422</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="D28" t="n">
-        <v>21.19278617692422</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="E28" t="n">
-        <v>21.19278617692422</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="F28" t="n">
         <v>21.19278617692422</v>
@@ -6387,49 +6387,49 @@
         <v>21.19278617692422</v>
       </c>
       <c r="K28" t="n">
-        <v>202.5072298959327</v>
+        <v>37.65215715325133</v>
       </c>
       <c r="L28" t="n">
-        <v>243.0083264889774</v>
+        <v>257.926878837671</v>
       </c>
       <c r="M28" t="n">
-        <v>505.2690554284146</v>
+        <v>520.1876077771083</v>
       </c>
       <c r="N28" t="n">
-        <v>729.1556868217534</v>
+        <v>782.4483367165456</v>
       </c>
       <c r="O28" t="n">
-        <v>761.0843935115425</v>
+        <v>1044.709065655983</v>
       </c>
       <c r="P28" t="n">
-        <v>984.5187730839757</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="Q28" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="R28" t="n">
-        <v>975.0196362509771</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S28" t="n">
-        <v>787.428438048627</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T28" t="n">
-        <v>555.4421437750756</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U28" t="n">
-        <v>287.8564597230022</v>
+        <v>792.0536247941375</v>
       </c>
       <c r="V28" t="n">
-        <v>21.87711454382639</v>
+        <v>533.9318575892634</v>
       </c>
       <c r="W28" t="n">
-        <v>21.19278617692422</v>
+        <v>533.9318575892634</v>
       </c>
       <c r="X28" t="n">
-        <v>21.19278617692422</v>
+        <v>533.9318575892634</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.19278617692422</v>
+        <v>533.9318575892634</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1059.639308846211</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="C29" t="n">
-        <v>1059.639308846211</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="D29" t="n">
-        <v>1059.639308846211</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="E29" t="n">
-        <v>792.0536247941377</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="F29" t="n">
-        <v>524.4679407420642</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="G29" t="n">
-        <v>256.8822566899907</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="H29" t="n">
         <v>21.19278617692422</v>
@@ -6463,25 +6463,25 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J29" t="n">
-        <v>66.69998144344379</v>
+        <v>66.69998144344373</v>
       </c>
       <c r="K29" t="n">
         <v>167.8835074844188</v>
       </c>
       <c r="L29" t="n">
-        <v>317.3967640053161</v>
+        <v>317.3967640053162</v>
       </c>
       <c r="M29" t="n">
         <v>504.3442043438556</v>
       </c>
       <c r="N29" t="n">
-        <v>697.3156251608453</v>
+        <v>697.3156251608452</v>
       </c>
       <c r="O29" t="n">
-        <v>870.8651460022305</v>
+        <v>870.8651460022304</v>
       </c>
       <c r="P29" t="n">
-        <v>996.5599962719607</v>
+        <v>996.5599962719605</v>
       </c>
       <c r="Q29" t="n">
         <v>1059.639308846211</v>
@@ -6493,22 +6493,22 @@
         <v>1059.639308846211</v>
       </c>
       <c r="T29" t="n">
-        <v>1059.639308846211</v>
+        <v>844.6643039155272</v>
       </c>
       <c r="U29" t="n">
-        <v>1059.639308846211</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="V29" t="n">
-        <v>1059.639308846211</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="W29" t="n">
-        <v>1059.639308846211</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="X29" t="n">
-        <v>1059.639308846211</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="Y29" t="n">
-        <v>1059.639308846211</v>
+        <v>556.3641542810713</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>301.9359839953516</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="C30" t="n">
-        <v>151.2817535554439</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="D30" t="n">
-        <v>21.19278617692422</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="E30" t="n">
-        <v>21.19278617692422</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="F30" t="n">
-        <v>21.19278617692422</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="G30" t="n">
-        <v>21.19278617692422</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="H30" t="n">
-        <v>21.19278617692422</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="I30" t="n">
         <v>21.19278617692422</v>
       </c>
       <c r="J30" t="n">
-        <v>36.06495940012038</v>
+        <v>36.06495940012039</v>
       </c>
       <c r="K30" t="n">
-        <v>112.2845083146626</v>
+        <v>278.2745291883335</v>
       </c>
       <c r="L30" t="n">
-        <v>244.8807496576689</v>
+        <v>410.8707705313398</v>
       </c>
       <c r="M30" t="n">
-        <v>412.1962734562695</v>
+        <v>578.1862943299404</v>
       </c>
       <c r="N30" t="n">
-        <v>674.4570023957067</v>
+        <v>759.2957813758464</v>
       </c>
       <c r="O30" t="n">
-        <v>825.6939335532733</v>
+        <v>910.532712533413</v>
       </c>
       <c r="P30" t="n">
-        <v>934.5084110324649</v>
+        <v>1019.347190012605</v>
       </c>
       <c r="Q30" t="n">
-        <v>1019.669076260632</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="R30" t="n">
         <v>1059.639308846211</v>
@@ -6572,22 +6572,22 @@
         <v>1059.639308846211</v>
       </c>
       <c r="T30" t="n">
-        <v>923.7776503297587</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U30" t="n">
-        <v>713.783063274273</v>
+        <v>849.6447217907253</v>
       </c>
       <c r="V30" t="n">
-        <v>491.24306164534</v>
+        <v>627.1047201617923</v>
       </c>
       <c r="W30" t="n">
-        <v>491.24306164534</v>
+        <v>396.9874742950792</v>
       </c>
       <c r="X30" t="n">
-        <v>301.9359839953516</v>
+        <v>207.6803966450909</v>
       </c>
       <c r="Y30" t="n">
-        <v>301.9359839953516</v>
+        <v>34.70226102508844</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>555.442143775076</v>
+        <v>346.9567162517325</v>
       </c>
       <c r="C31" t="n">
-        <v>555.442143775076</v>
+        <v>176.7515983177217</v>
       </c>
       <c r="D31" t="n">
-        <v>555.442143775076</v>
+        <v>176.7515983177217</v>
       </c>
       <c r="E31" t="n">
-        <v>555.442143775076</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F31" t="n">
-        <v>443.1066202535642</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G31" t="n">
-        <v>275.7261904623791</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H31" t="n">
-        <v>128.0149519599024</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I31" t="n">
         <v>21.19278617692422</v>
@@ -6624,19 +6624,19 @@
         <v>21.19278617692422</v>
       </c>
       <c r="K31" t="n">
-        <v>37.65215715325132</v>
+        <v>37.65215715325133</v>
       </c>
       <c r="L31" t="n">
-        <v>299.9128860926886</v>
+        <v>257.926878837671</v>
       </c>
       <c r="M31" t="n">
-        <v>344.7334977364999</v>
+        <v>520.1876077771083</v>
       </c>
       <c r="N31" t="n">
-        <v>606.9942266759372</v>
+        <v>782.4483367165456</v>
       </c>
       <c r="O31" t="n">
-        <v>869.2549556153745</v>
+        <v>1044.709065655983</v>
       </c>
       <c r="P31" t="n">
         <v>1059.639308846211</v>
@@ -6645,28 +6645,28 @@
         <v>1059.639308846211</v>
       </c>
       <c r="R31" t="n">
-        <v>975.0196362509776</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S31" t="n">
-        <v>787.4284380486274</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="T31" t="n">
-        <v>555.442143775076</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="U31" t="n">
-        <v>555.442143775076</v>
+        <v>798.1440801222095</v>
       </c>
       <c r="V31" t="n">
-        <v>555.442143775076</v>
+        <v>532.1647349430337</v>
       </c>
       <c r="W31" t="n">
-        <v>555.442143775076</v>
+        <v>532.1647349430337</v>
       </c>
       <c r="X31" t="n">
-        <v>555.442143775076</v>
+        <v>532.1647349430337</v>
       </c>
       <c r="Y31" t="n">
-        <v>555.442143775076</v>
+        <v>532.1647349430337</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7784702289978</v>
+        <v>187.3602038836326</v>
       </c>
       <c r="C32" t="n">
-        <v>288.7784702289978</v>
+        <v>187.3602038836326</v>
       </c>
       <c r="D32" t="n">
-        <v>288.7784702289978</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="E32" t="n">
         <v>21.19278617692422</v>
@@ -6700,22 +6700,22 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J32" t="n">
-        <v>66.69998144344368</v>
+        <v>66.69998144344379</v>
       </c>
       <c r="K32" t="n">
-        <v>167.8835074844187</v>
+        <v>167.8835074844186</v>
       </c>
       <c r="L32" t="n">
         <v>317.396764005316</v>
       </c>
       <c r="M32" t="n">
-        <v>504.3442043438558</v>
+        <v>504.3442043438554</v>
       </c>
       <c r="N32" t="n">
-        <v>697.3156251608457</v>
+        <v>697.3156251608453</v>
       </c>
       <c r="O32" t="n">
-        <v>870.8651460022309</v>
+        <v>870.8651460022307</v>
       </c>
       <c r="P32" t="n">
         <v>996.5599962719607</v>
@@ -6727,25 +6727,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S32" t="n">
-        <v>1026.936081169894</v>
+        <v>937.5065769184635</v>
       </c>
       <c r="T32" t="n">
-        <v>811.9610762392101</v>
+        <v>722.5315719877797</v>
       </c>
       <c r="U32" t="n">
-        <v>556.3641542810713</v>
+        <v>722.5315719877797</v>
       </c>
       <c r="V32" t="n">
-        <v>556.3641542810713</v>
+        <v>454.9458879357061</v>
       </c>
       <c r="W32" t="n">
-        <v>556.3641542810713</v>
+        <v>187.3602038836326</v>
       </c>
       <c r="X32" t="n">
-        <v>556.3641542810713</v>
+        <v>187.3602038836326</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.7784702289978</v>
+        <v>187.3602038836326</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>454.3211222498207</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="C33" t="n">
-        <v>454.3211222498207</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="D33" t="n">
-        <v>454.3211222498207</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="E33" t="n">
-        <v>317.8746313607085</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="F33" t="n">
-        <v>231.9533802812835</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="G33" t="n">
-        <v>112.9356175944094</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="H33" t="n">
-        <v>34.70226102508845</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="I33" t="n">
         <v>21.19278617692422</v>
       </c>
       <c r="J33" t="n">
-        <v>202.0549802737916</v>
+        <v>36.06495940012039</v>
       </c>
       <c r="K33" t="n">
-        <v>278.2745291883338</v>
+        <v>112.2845083146626</v>
       </c>
       <c r="L33" t="n">
-        <v>410.8707705313401</v>
+        <v>244.8807496576689</v>
       </c>
       <c r="M33" t="n">
-        <v>578.1862943299407</v>
+        <v>412.1962734562695</v>
       </c>
       <c r="N33" t="n">
-        <v>759.2957813758467</v>
+        <v>593.3057605021755</v>
       </c>
       <c r="O33" t="n">
-        <v>910.5327125334132</v>
+        <v>744.5426916597421</v>
       </c>
       <c r="P33" t="n">
-        <v>1019.347190012605</v>
+        <v>853.3571691389337</v>
       </c>
       <c r="Q33" t="n">
         <v>1059.639308846211</v>
@@ -6809,22 +6809,22 @@
         <v>1059.639308846211</v>
       </c>
       <c r="T33" t="n">
-        <v>886.8557109342394</v>
+        <v>995.2317229627297</v>
       </c>
       <c r="U33" t="n">
-        <v>676.8611238787537</v>
+        <v>785.237135907244</v>
       </c>
       <c r="V33" t="n">
-        <v>454.3211222498207</v>
+        <v>785.237135907244</v>
       </c>
       <c r="W33" t="n">
-        <v>454.3211222498207</v>
+        <v>555.1198900405309</v>
       </c>
       <c r="X33" t="n">
-        <v>454.3211222498207</v>
+        <v>365.8128123905425</v>
       </c>
       <c r="Y33" t="n">
-        <v>454.3211222498207</v>
+        <v>186.4985954660498</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>454.8537976790084</v>
+        <v>332.384711415207</v>
       </c>
       <c r="C34" t="n">
-        <v>284.6486797449976</v>
+        <v>332.384711415207</v>
       </c>
       <c r="D34" t="n">
-        <v>284.6486797449976</v>
+        <v>176.7515983177217</v>
       </c>
       <c r="E34" t="n">
-        <v>284.6486797449976</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F34" t="n">
-        <v>284.6486797449976</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G34" t="n">
-        <v>275.7261904623791</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H34" t="n">
-        <v>128.0149519599024</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I34" t="n">
         <v>21.19278617692422</v>
@@ -6861,19 +6861,19 @@
         <v>21.19278617692422</v>
       </c>
       <c r="K34" t="n">
-        <v>202.5072298959327</v>
+        <v>37.65215715325134</v>
       </c>
       <c r="L34" t="n">
-        <v>243.0083264889774</v>
+        <v>257.9268788376712</v>
       </c>
       <c r="M34" t="n">
-        <v>505.2690554284147</v>
+        <v>520.1876077771085</v>
       </c>
       <c r="N34" t="n">
-        <v>767.529784367852</v>
+        <v>782.4483367165458</v>
       </c>
       <c r="O34" t="n">
-        <v>1029.790513307289</v>
+        <v>1044.709065655983</v>
       </c>
       <c r="P34" t="n">
         <v>1059.639308846211</v>
@@ -6891,19 +6891,19 @@
         <v>640.0618163703097</v>
       </c>
       <c r="U34" t="n">
-        <v>640.0618163703097</v>
+        <v>599.9703954672805</v>
       </c>
       <c r="V34" t="n">
-        <v>640.0618163703097</v>
+        <v>599.9703954672805</v>
       </c>
       <c r="W34" t="n">
-        <v>640.0618163703097</v>
+        <v>332.384711415207</v>
       </c>
       <c r="X34" t="n">
-        <v>640.0618163703097</v>
+        <v>332.384711415207</v>
       </c>
       <c r="Y34" t="n">
-        <v>640.0618163703097</v>
+        <v>332.384711415207</v>
       </c>
     </row>
     <row r="35">
@@ -6916,13 +6916,13 @@
         <v>524.467940742064</v>
       </c>
       <c r="C35" t="n">
-        <v>256.8822566899905</v>
+        <v>524.467940742064</v>
       </c>
       <c r="D35" t="n">
-        <v>256.8822566899905</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="E35" t="n">
-        <v>256.8822566899905</v>
+        <v>288.7784702289977</v>
       </c>
       <c r="F35" t="n">
         <v>21.19278617692422</v>
@@ -6937,10 +6937,10 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J35" t="n">
-        <v>66.69998144344385</v>
+        <v>66.69998144344379</v>
       </c>
       <c r="K35" t="n">
-        <v>167.8835074844188</v>
+        <v>167.8835074844187</v>
       </c>
       <c r="L35" t="n">
         <v>317.3967640053162</v>
@@ -6952,7 +6952,7 @@
         <v>697.3156251608455</v>
       </c>
       <c r="O35" t="n">
-        <v>870.8651460022304</v>
+        <v>870.8651460022306</v>
       </c>
       <c r="P35" t="n">
         <v>996.5599962719605</v>
@@ -6979,7 +6979,7 @@
         <v>1059.639308846211</v>
       </c>
       <c r="X35" t="n">
-        <v>1059.639308846211</v>
+        <v>792.0536247941375</v>
       </c>
       <c r="Y35" t="n">
         <v>792.0536247941375</v>
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>372.8436928530766</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="C36" t="n">
-        <v>372.8436928530766</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="D36" t="n">
-        <v>242.7547254745569</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="E36" t="n">
-        <v>242.7547254745569</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="F36" t="n">
-        <v>218.4439054331193</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="G36" t="n">
-        <v>99.4261427462452</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="H36" t="n">
-        <v>21.19278617692422</v>
+        <v>34.70226102508844</v>
       </c>
       <c r="I36" t="n">
         <v>21.19278617692422</v>
       </c>
       <c r="J36" t="n">
-        <v>36.06495940012037</v>
+        <v>36.06495940012039</v>
       </c>
       <c r="K36" t="n">
-        <v>238.3042966027542</v>
+        <v>112.2845083146626</v>
       </c>
       <c r="L36" t="n">
-        <v>370.9005379457606</v>
+        <v>244.8807496576689</v>
       </c>
       <c r="M36" t="n">
-        <v>538.2160617443611</v>
+        <v>412.1962734562695</v>
       </c>
       <c r="N36" t="n">
-        <v>719.3255487902671</v>
+        <v>593.3057605021755</v>
       </c>
       <c r="O36" t="n">
-        <v>870.5624799478337</v>
+        <v>744.5426916597421</v>
       </c>
       <c r="P36" t="n">
-        <v>979.3769574270253</v>
+        <v>853.3571691389337</v>
       </c>
       <c r="Q36" t="n">
         <v>1019.669076260632</v>
@@ -7043,25 +7043,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S36" t="n">
-        <v>944.0643508107395</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T36" t="n">
-        <v>944.0643508107395</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U36" t="n">
-        <v>944.0643508107395</v>
+        <v>849.6447217907253</v>
       </c>
       <c r="V36" t="n">
-        <v>944.0643508107395</v>
+        <v>633.4408014662827</v>
       </c>
       <c r="W36" t="n">
-        <v>713.9471049440264</v>
+        <v>403.3235555995695</v>
       </c>
       <c r="X36" t="n">
-        <v>524.640027294038</v>
+        <v>214.0164779495812</v>
       </c>
       <c r="Y36" t="n">
-        <v>524.640027294038</v>
+        <v>34.70226102508844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>252.2570699444802</v>
+        <v>370.3821043747704</v>
       </c>
       <c r="C37" t="n">
-        <v>252.2570699444802</v>
+        <v>370.3821043747704</v>
       </c>
       <c r="D37" t="n">
-        <v>252.2570699444802</v>
+        <v>214.7489912772851</v>
       </c>
       <c r="E37" t="n">
-        <v>252.2570699444802</v>
+        <v>59.19017913648764</v>
       </c>
       <c r="F37" t="n">
-        <v>252.2570699444802</v>
+        <v>59.19017913648764</v>
       </c>
       <c r="G37" t="n">
-        <v>84.87664015329514</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H37" t="n">
-        <v>84.87664015329514</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I37" t="n">
         <v>21.19278617692422</v>
@@ -7098,49 +7098,49 @@
         <v>51.95514014370514</v>
       </c>
       <c r="K37" t="n">
-        <v>233.2695838627136</v>
+        <v>68.41451112003226</v>
       </c>
       <c r="L37" t="n">
-        <v>279.7547647051143</v>
+        <v>182.8063430754361</v>
       </c>
       <c r="M37" t="n">
-        <v>542.0154936445515</v>
+        <v>445.0670720148733</v>
       </c>
       <c r="N37" t="n">
-        <v>804.2762225839887</v>
+        <v>707.3278009543105</v>
       </c>
       <c r="O37" t="n">
-        <v>836.2049292737778</v>
+        <v>969.5885298937478</v>
       </c>
       <c r="P37" t="n">
-        <v>1059.639308846211</v>
+        <v>984.5187730839759</v>
       </c>
       <c r="Q37" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="R37" t="n">
-        <v>975.0196362509773</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S37" t="n">
-        <v>787.4284380486272</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="T37" t="n">
-        <v>787.4284380486272</v>
+        <v>872.0481106438608</v>
       </c>
       <c r="U37" t="n">
-        <v>519.8427539965537</v>
+        <v>604.4624265917873</v>
       </c>
       <c r="V37" t="n">
-        <v>519.8427539965537</v>
+        <v>604.4624265917873</v>
       </c>
       <c r="W37" t="n">
-        <v>252.2570699444802</v>
+        <v>604.4624265917873</v>
       </c>
       <c r="X37" t="n">
-        <v>252.2570699444802</v>
+        <v>370.3821043747704</v>
       </c>
       <c r="Y37" t="n">
-        <v>252.2570699444802</v>
+        <v>370.3821043747704</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>524.4679407420642</v>
+        <v>524.467940742064</v>
       </c>
       <c r="C38" t="n">
-        <v>256.8822566899907</v>
+        <v>256.8822566899905</v>
       </c>
       <c r="D38" t="n">
-        <v>256.8822566899907</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="E38" t="n">
-        <v>256.8822566899907</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F38" t="n">
-        <v>256.8822566899907</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G38" t="n">
-        <v>256.8822566899907</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H38" t="n">
-        <v>84.44524334707475</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I38" t="n">
         <v>21.19278617692422</v>
       </c>
       <c r="J38" t="n">
-        <v>66.69998144344382</v>
+        <v>66.69998144344373</v>
       </c>
       <c r="K38" t="n">
-        <v>167.8835074844187</v>
+        <v>167.8835074844188</v>
       </c>
       <c r="L38" t="n">
-        <v>317.3967640053161</v>
+        <v>317.3967640053162</v>
       </c>
       <c r="M38" t="n">
-        <v>504.3442043438555</v>
+        <v>504.3442043438556</v>
       </c>
       <c r="N38" t="n">
-        <v>697.3156251608455</v>
+        <v>697.3156251608452</v>
       </c>
       <c r="O38" t="n">
-        <v>870.8651460022305</v>
+        <v>870.8651460022304</v>
       </c>
       <c r="P38" t="n">
-        <v>996.5599962719607</v>
+        <v>996.5599962719605</v>
       </c>
       <c r="Q38" t="n">
         <v>1059.639308846211</v>
@@ -7216,10 +7216,10 @@
         <v>1059.639308846211</v>
       </c>
       <c r="X38" t="n">
-        <v>1059.639308846211</v>
+        <v>792.0536247941375</v>
       </c>
       <c r="Y38" t="n">
-        <v>792.0536247941377</v>
+        <v>792.0536247941375</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>171.847016616832</v>
+        <v>275.7135596723121</v>
       </c>
       <c r="C39" t="n">
-        <v>21.19278617692422</v>
+        <v>275.7135596723121</v>
       </c>
       <c r="D39" t="n">
-        <v>21.19278617692422</v>
+        <v>145.6245922937924</v>
       </c>
       <c r="E39" t="n">
-        <v>21.19278617692422</v>
+        <v>145.6245922937924</v>
       </c>
       <c r="F39" t="n">
         <v>21.19278617692422</v>
@@ -7253,7 +7253,7 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J39" t="n">
-        <v>36.06495940012038</v>
+        <v>36.06495940012039</v>
       </c>
       <c r="K39" t="n">
         <v>112.2845083146626</v>
@@ -7280,25 +7280,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S39" t="n">
-        <v>1059.639308846211</v>
+        <v>968.9147865997263</v>
       </c>
       <c r="T39" t="n">
-        <v>953.0622616299804</v>
+        <v>796.1311886877545</v>
       </c>
       <c r="U39" t="n">
-        <v>743.0676745744947</v>
+        <v>796.1311886877545</v>
       </c>
       <c r="V39" t="n">
-        <v>743.0676745744947</v>
+        <v>796.1311886877545</v>
       </c>
       <c r="W39" t="n">
-        <v>512.9504287077816</v>
+        <v>796.1311886877545</v>
       </c>
       <c r="X39" t="n">
-        <v>323.6433510577933</v>
+        <v>606.8241110377662</v>
       </c>
       <c r="Y39" t="n">
-        <v>323.6433510577933</v>
+        <v>427.5098941132734</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>347.0310172084203</v>
+        <v>336.284454470586</v>
       </c>
       <c r="C40" t="n">
-        <v>176.8258992744095</v>
+        <v>336.284454470586</v>
       </c>
       <c r="D40" t="n">
-        <v>21.19278617692422</v>
+        <v>336.284454470586</v>
       </c>
       <c r="E40" t="n">
-        <v>21.19278617692422</v>
+        <v>336.284454470586</v>
       </c>
       <c r="F40" t="n">
-        <v>21.19278617692422</v>
+        <v>336.284454470586</v>
       </c>
       <c r="G40" t="n">
-        <v>21.19278617692422</v>
+        <v>168.9040246794009</v>
       </c>
       <c r="H40" t="n">
         <v>21.19278617692422</v>
@@ -7338,13 +7338,13 @@
         <v>202.5072298959327</v>
       </c>
       <c r="L40" t="n">
-        <v>464.76795883537</v>
+        <v>464.7679588353699</v>
       </c>
       <c r="M40" t="n">
-        <v>727.0286877748073</v>
+        <v>727.0286877748072</v>
       </c>
       <c r="N40" t="n">
-        <v>782.4483367165458</v>
+        <v>989.2894167142445</v>
       </c>
       <c r="O40" t="n">
         <v>1044.709065655983</v>
@@ -7365,19 +7365,19 @@
         <v>1059.639308846211</v>
       </c>
       <c r="U40" t="n">
-        <v>799.824719951795</v>
+        <v>1010.58387952442</v>
       </c>
       <c r="V40" t="n">
-        <v>799.824719951795</v>
+        <v>744.6045343452439</v>
       </c>
       <c r="W40" t="n">
-        <v>532.2390358997216</v>
+        <v>744.6045343452439</v>
       </c>
       <c r="X40" t="n">
-        <v>532.2390358997216</v>
+        <v>744.6045343452439</v>
       </c>
       <c r="Y40" t="n">
-        <v>532.2390358997216</v>
+        <v>521.4924731618872</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>256.8822566899907</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="C41" t="n">
-        <v>256.8822566899907</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="D41" t="n">
-        <v>256.8822566899907</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="E41" t="n">
-        <v>256.8822566899907</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F41" t="n">
-        <v>256.8822566899907</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G41" t="n">
-        <v>256.8822566899907</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H41" t="n">
-        <v>84.44524334707475</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I41" t="n">
         <v>21.19278617692422</v>
       </c>
       <c r="J41" t="n">
-        <v>66.69998144344378</v>
+        <v>66.69998144344379</v>
       </c>
       <c r="K41" t="n">
-        <v>167.8835074844187</v>
+        <v>167.8835074844188</v>
       </c>
       <c r="L41" t="n">
         <v>317.3967640053161</v>
@@ -7423,10 +7423,10 @@
         <v>504.3442043438555</v>
       </c>
       <c r="N41" t="n">
-        <v>697.3156251608453</v>
+        <v>697.3156251608457</v>
       </c>
       <c r="O41" t="n">
-        <v>870.8651460022304</v>
+        <v>870.8651460022309</v>
       </c>
       <c r="P41" t="n">
         <v>996.5599962719607</v>
@@ -7450,13 +7450,13 @@
         <v>1059.639308846211</v>
       </c>
       <c r="W41" t="n">
-        <v>1059.639308846211</v>
+        <v>792.0536247941377</v>
       </c>
       <c r="X41" t="n">
-        <v>792.0536247941377</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="Y41" t="n">
-        <v>524.4679407420642</v>
+        <v>556.3641542810713</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>179.3725855356079</v>
+        <v>28.36617972059832</v>
       </c>
       <c r="C42" t="n">
-        <v>28.71835509570008</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="D42" t="n">
-        <v>28.71835509570008</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="E42" t="n">
-        <v>28.71835509570008</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="F42" t="n">
-        <v>28.71835509570008</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G42" t="n">
-        <v>28.71835509570008</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="H42" t="n">
         <v>21.19278617692422</v>
@@ -7490,7 +7490,7 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J42" t="n">
-        <v>36.06495940012038</v>
+        <v>162.0847476882123</v>
       </c>
       <c r="K42" t="n">
         <v>238.3042966027544</v>
@@ -7517,25 +7517,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S42" t="n">
-        <v>944.0643508107397</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T42" t="n">
-        <v>771.280752898768</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="U42" t="n">
-        <v>561.2861658432823</v>
+        <v>849.6447217907255</v>
       </c>
       <c r="V42" t="n">
-        <v>561.2861658432823</v>
+        <v>627.1047201617926</v>
       </c>
       <c r="W42" t="n">
-        <v>331.1689199765692</v>
+        <v>396.9874742950794</v>
       </c>
       <c r="X42" t="n">
-        <v>331.1689199765692</v>
+        <v>207.6803966450911</v>
       </c>
       <c r="Y42" t="n">
-        <v>331.1689199765692</v>
+        <v>28.36617972059832</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>602.2204193573261</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="C43" t="n">
-        <v>432.0153014233153</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="D43" t="n">
-        <v>432.0153014233153</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="E43" t="n">
-        <v>276.4564892825179</v>
+        <v>178.5187209639513</v>
       </c>
       <c r="F43" t="n">
-        <v>119.1305544954908</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="G43" t="n">
         <v>21.19278617692422</v>
@@ -7572,19 +7572,19 @@
         <v>51.95514014370514</v>
       </c>
       <c r="K43" t="n">
-        <v>233.2695838627136</v>
+        <v>142.3052464823915</v>
       </c>
       <c r="L43" t="n">
-        <v>418.0326883655362</v>
+        <v>182.8063430754362</v>
       </c>
       <c r="M43" t="n">
-        <v>680.2934173049734</v>
+        <v>445.0670720148735</v>
       </c>
       <c r="N43" t="n">
-        <v>729.1556868217539</v>
+        <v>707.3278009543108</v>
       </c>
       <c r="O43" t="n">
-        <v>761.084393511543</v>
+        <v>969.588529893748</v>
       </c>
       <c r="P43" t="n">
         <v>984.5187730839762</v>
@@ -7593,28 +7593,28 @@
         <v>1059.639308846211</v>
       </c>
       <c r="R43" t="n">
-        <v>975.0196362509776</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="S43" t="n">
-        <v>787.4284380486274</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T43" t="n">
-        <v>787.4284380486274</v>
+        <v>827.6530145726598</v>
       </c>
       <c r="U43" t="n">
-        <v>787.4284380486274</v>
+        <v>560.0673305205862</v>
       </c>
       <c r="V43" t="n">
-        <v>787.4284380486274</v>
+        <v>401.6307821473079</v>
       </c>
       <c r="W43" t="n">
-        <v>787.4284380486274</v>
+        <v>401.6307821473079</v>
       </c>
       <c r="X43" t="n">
-        <v>787.4284380486274</v>
+        <v>401.6307821473079</v>
       </c>
       <c r="Y43" t="n">
-        <v>787.4284380486274</v>
+        <v>178.5187209639513</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>524.4679407420642</v>
+        <v>556.3641542810713</v>
       </c>
       <c r="C44" t="n">
+        <v>556.3641542810713</v>
+      </c>
+      <c r="D44" t="n">
+        <v>556.3641542810713</v>
+      </c>
+      <c r="E44" t="n">
         <v>288.7784702289978</v>
       </c>
-      <c r="D44" t="n">
-        <v>21.19278617692422</v>
-      </c>
-      <c r="E44" t="n">
-        <v>21.19278617692422</v>
-      </c>
       <c r="F44" t="n">
-        <v>21.19278617692422</v>
+        <v>288.7784702289978</v>
       </c>
       <c r="G44" t="n">
         <v>21.19278617692422</v>
@@ -7681,19 +7681,19 @@
         <v>1059.639308846211</v>
       </c>
       <c r="U44" t="n">
-        <v>1059.639308846211</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="V44" t="n">
-        <v>1059.639308846211</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="W44" t="n">
-        <v>1059.639308846211</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="X44" t="n">
-        <v>1059.639308846211</v>
+        <v>823.9498383331447</v>
       </c>
       <c r="Y44" t="n">
-        <v>792.0536247941377</v>
+        <v>823.9498383331447</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21.19278617692422</v>
+        <v>290.8647793037061</v>
       </c>
       <c r="C45" t="n">
-        <v>21.19278617692422</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="D45" t="n">
-        <v>21.19278617692422</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="E45" t="n">
-        <v>21.19278617692422</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="F45" t="n">
-        <v>21.19278617692422</v>
+        <v>140.2105488637983</v>
       </c>
       <c r="G45" t="n">
         <v>21.19278617692422</v>
@@ -7727,16 +7727,16 @@
         <v>21.19278617692422</v>
       </c>
       <c r="J45" t="n">
-        <v>36.06495940012038</v>
+        <v>202.0549802737916</v>
       </c>
       <c r="K45" t="n">
-        <v>112.2845083146626</v>
+        <v>278.2745291883338</v>
       </c>
       <c r="L45" t="n">
-        <v>374.5452372540998</v>
+        <v>410.8707705313401</v>
       </c>
       <c r="M45" t="n">
-        <v>541.8607610527004</v>
+        <v>578.1862943299407</v>
       </c>
       <c r="N45" t="n">
         <v>759.2957813758467</v>
@@ -7754,25 +7754,25 @@
         <v>1059.639308846211</v>
       </c>
       <c r="S45" t="n">
-        <v>944.0643508107397</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="T45" t="n">
-        <v>944.0643508107397</v>
+        <v>886.8557109342394</v>
       </c>
       <c r="U45" t="n">
-        <v>734.0697637552539</v>
+        <v>882.0260755071201</v>
       </c>
       <c r="V45" t="n">
-        <v>511.529762126321</v>
+        <v>659.4860738781872</v>
       </c>
       <c r="W45" t="n">
-        <v>281.4125162596079</v>
+        <v>659.4860738781872</v>
       </c>
       <c r="X45" t="n">
-        <v>92.10543860961951</v>
+        <v>470.1789962281989</v>
       </c>
       <c r="Y45" t="n">
-        <v>21.19278617692422</v>
+        <v>290.8647793037061</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>598.6654323943617</v>
+        <v>975.0074324299064</v>
       </c>
       <c r="C46" t="n">
-        <v>598.6654323943617</v>
+        <v>804.8023144958956</v>
       </c>
       <c r="D46" t="n">
-        <v>598.6654323943617</v>
+        <v>649.1692013984105</v>
       </c>
       <c r="E46" t="n">
-        <v>443.1066202535642</v>
+        <v>493.610389257613</v>
       </c>
       <c r="F46" t="n">
-        <v>443.1066202535642</v>
+        <v>336.284454470586</v>
       </c>
       <c r="G46" t="n">
-        <v>275.7261904623791</v>
+        <v>168.9040246794009</v>
       </c>
       <c r="H46" t="n">
-        <v>128.0149519599024</v>
+        <v>21.19278617692422</v>
       </c>
       <c r="I46" t="n">
         <v>21.19278617692422</v>
@@ -7809,49 +7809,49 @@
         <v>21.19278617692422</v>
       </c>
       <c r="K46" t="n">
-        <v>202.5072298959327</v>
+        <v>37.65215715325132</v>
       </c>
       <c r="L46" t="n">
-        <v>418.0326883655362</v>
+        <v>257.9268788376712</v>
       </c>
       <c r="M46" t="n">
-        <v>680.2934173049734</v>
+        <v>520.1876077771085</v>
       </c>
       <c r="N46" t="n">
-        <v>729.1556868217539</v>
+        <v>782.4483367165458</v>
       </c>
       <c r="O46" t="n">
-        <v>761.084393511543</v>
+        <v>1044.709065655983</v>
       </c>
       <c r="P46" t="n">
-        <v>984.5187730839762</v>
+        <v>1059.639308846211</v>
       </c>
       <c r="Q46" t="n">
         <v>1059.639308846211</v>
       </c>
       <c r="R46" t="n">
-        <v>1059.639308846211</v>
+        <v>975.0196362509776</v>
       </c>
       <c r="S46" t="n">
-        <v>1059.639308846211</v>
+        <v>975.0196362509776</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.639308846211</v>
+        <v>975.0196362509776</v>
       </c>
       <c r="U46" t="n">
-        <v>1059.639308846211</v>
+        <v>975.0196362509776</v>
       </c>
       <c r="V46" t="n">
-        <v>832.7457546113786</v>
+        <v>975.0196362509776</v>
       </c>
       <c r="W46" t="n">
-        <v>832.7457546113786</v>
+        <v>975.0196362509776</v>
       </c>
       <c r="X46" t="n">
-        <v>598.6654323943617</v>
+        <v>975.0074324299064</v>
       </c>
       <c r="Y46" t="n">
-        <v>598.6654323943617</v>
+        <v>975.0074324299064</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>19.01338565904577</v>
+        <v>19.01338565904575</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.39945164851819</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>223.9996286327197</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>219.6364821167939</v>
+        <v>219.636482116794</v>
       </c>
       <c r="N13" t="n">
         <v>215.5539994168251</v>
       </c>
       <c r="O13" t="n">
-        <v>114.3691709418139</v>
+        <v>140.7754392619457</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>167.6666877511828</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.292715442517</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699452</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>21.39945164851818</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>223.9996286327197</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>219.6364821167939</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>172.4291382078709</v>
+        <v>221.5985289616289</v>
       </c>
       <c r="P16" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>26.05568601652959</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>19.01338565904577</v>
+        <v>19.01338565904574</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>127.2927154425173</v>
+        <v>167.6666877511827</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699451</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>21.39945164851819</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>223.9996286327197</v>
+        <v>223.9996286327196</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>219.6364821167938</v>
       </c>
       <c r="N19" t="n">
-        <v>215.5539994168251</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>232.6586083329779</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>177.2263737783925</v>
+        <v>132.3298100460507</v>
       </c>
       <c r="Q19" t="n">
-        <v>26.05568601652961</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>19.01338565904578</v>
+        <v>19.01338565904574</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>127.2927154425165</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.2927154425169</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.4725364634484</v>
+        <v>21.39945164851817</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
-        <v>150.5164354793881</v>
+        <v>223.9996286327196</v>
       </c>
       <c r="M22" t="n">
-        <v>219.6364821167938</v>
+        <v>15.64985892765523</v>
       </c>
       <c r="N22" t="n">
-        <v>215.5539994168249</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>232.6586083329778</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.05568601652962</v>
+        <v>26.05568601652959</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>19.01338565904577</v>
+        <v>19.01338565904575</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.2927154425169</v>
+        <v>167.6666877511827</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699452</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>21.39945164851819</v>
+        <v>21.39945164851818</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>181.5895202943182</v>
       </c>
       <c r="M25" t="n">
-        <v>219.6364821167938</v>
+        <v>219.6364821167939</v>
       </c>
       <c r="N25" t="n">
         <v>215.553999416825</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.05568601652961</v>
+        <v>26.05568601652959</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>19.01338565904575</v>
+        <v>19.01338565904574</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>127.2927154425167</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>167.6666877511827</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699451</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>21.39945164851818</v>
+        <v>21.39945164851817</v>
       </c>
       <c r="K28" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.5895202943181</v>
       </c>
       <c r="M28" t="n">
         <v>219.6364821167938</v>
       </c>
       <c r="N28" t="n">
-        <v>176.7922847237963</v>
+        <v>215.553999416825</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>232.6586083329778</v>
       </c>
       <c r="P28" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.9350150692923</v>
+        <v>26.05568601652959</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>19.01338565904575</v>
+        <v>19.01338565904574</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>167.6666877511827</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>81.97095140760732</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.32176403490978</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>30.63983259699451</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>21.39945164851818</v>
+        <v>21.39945164851817</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>223.9996286327197</v>
+        <v>181.5895202943181</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>219.6364821167938</v>
       </c>
       <c r="N31" t="n">
         <v>215.553999416825</v>
       </c>
       <c r="O31" t="n">
-        <v>232.6586083329779</v>
+        <v>232.6586083329778</v>
       </c>
       <c r="P31" t="n">
-        <v>177.2263737783925</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>26.05568601652959</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>19.01338565904575</v>
+        <v>19.01338565904574</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>167.666687751183</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
       <c r="R33" t="n">
-        <v>30.63983259699452</v>
+        <v>30.63983259699451</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>21.39945164851818</v>
+        <v>21.39945164851817</v>
       </c>
       <c r="K34" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>181.5895202943183</v>
       </c>
       <c r="M34" t="n">
-        <v>219.636482116794</v>
+        <v>219.6364821167939</v>
       </c>
       <c r="N34" t="n">
         <v>215.553999416825</v>
@@ -10524,7 +10524,7 @@
         <v>232.6586083329779</v>
       </c>
       <c r="P34" t="n">
-        <v>15.06924479666035</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>26.05568601652959</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>19.01338565904575</v>
+        <v>19.01338565904574</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>127.2927154425169</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>127.2927154425168</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10746,25 +10746,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>6.044529544803964</v>
+        <v>74.63710642662529</v>
       </c>
       <c r="M37" t="n">
-        <v>219.6364821167939</v>
+        <v>219.6364821167938</v>
       </c>
       <c r="N37" t="n">
         <v>215.553999416825</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>232.6586083329778</v>
       </c>
       <c r="P37" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.05568601652959</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>19.01338565904575</v>
+        <v>19.01338565904574</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.666687751183</v>
+        <v>167.6666877511827</v>
       </c>
       <c r="R39" t="n">
-        <v>30.63983259699452</v>
+        <v>30.63983259699451</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>21.39945164851818</v>
+        <v>21.39945164851817</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>223.9996286327197</v>
+        <v>223.9996286327196</v>
       </c>
       <c r="M40" t="n">
-        <v>219.6364821167939</v>
+        <v>219.6364821167938</v>
       </c>
       <c r="N40" t="n">
-        <v>6.623615580765687</v>
+        <v>215.553999416825</v>
       </c>
       <c r="O40" t="n">
-        <v>232.6586083329779</v>
+        <v>23.72822449691843</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>127.2927154425171</v>
       </c>
       <c r="K42" t="n">
-        <v>127.292715442517</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>74.63710642662548</v>
       </c>
       <c r="L43" t="n">
-        <v>145.7191999088665</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>219.636482116794</v>
+        <v>219.6364821167939</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>215.553999416825</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>232.6586083329779</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>101.9350150692923</v>
@@ -11375,19 +11375,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>167.666687751183</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>130.9742298953848</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>36.69245785579827</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>21.39945164851818</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>176.7922847237967</v>
+        <v>181.5895202943183</v>
       </c>
       <c r="M46" t="n">
-        <v>219.636482116794</v>
+        <v>219.6364821167939</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>215.553999416825</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>232.6586083329779</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>26.05568601652959</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>8.19541422009803</v>
+        <v>8.195414220098041</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>8.19541422009803</v>
+        <v>8.195414220098041</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.5799710427301</v>
+        <v>231.9840547246415</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23275,10 +23275,10 @@
         <v>407.1030088170024</v>
       </c>
       <c r="H11" t="n">
-        <v>36.18604257638196</v>
+        <v>36.18604257638191</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.61993259844903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9114046084703</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.825254881377</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0409527385574</v>
       </c>
       <c r="V11" t="n">
-        <v>73.77591399196399</v>
+        <v>73.77591399196393</v>
       </c>
       <c r="W11" t="n">
-        <v>196.5764014719087</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>55.48611364421606</v>
       </c>
       <c r="F12" t="n">
-        <v>118.4795663140692</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.8275850600053</v>
       </c>
       <c r="H12" t="n">
         <v>77.45102300362777</v>
       </c>
       <c r="I12" t="n">
-        <v>13.37438009968259</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T12" t="n">
         <v>171.055761932852</v>
@@ -23433,10 +23433,10 @@
         <v>165.7066254932732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.2341261174519</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.7539441251484</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>80.59014357202358</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T13" t="n">
         <v>229.6664313308158</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5372281386121</v>
+        <v>17.62740092705928</v>
       </c>
       <c r="V13" t="n">
-        <v>253.3836728233977</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>15.58727083658135</v>
+        <v>15.5872708365813</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>231.9840547246417</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23503,13 +23503,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>133.6478624230681</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>147.8156668737692</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>142.1931816054496</v>
+        <v>407.1030088170024</v>
       </c>
       <c r="H14" t="n">
         <v>301.0958697879348</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9114046084703</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.825254881377</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.0409527385574</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>73.77591399196405</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>120.648251804721</v>
       </c>
       <c r="Y14" t="n">
-        <v>159.1932261806691</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23579,16 +23579,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>93.55559937868915</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8275850600053</v>
+        <v>23.0353276076701</v>
       </c>
       <c r="H15" t="n">
         <v>77.45102300362777</v>
@@ -23624,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>171.055761932852</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.2341261174519</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>16.60347432888825</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>83.77347586928133</v>
       </c>
       <c r="S16" t="n">
-        <v>185.7152862203266</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.96157227480492</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U16" t="n">
-        <v>17.62740092705934</v>
+        <v>17.6274009270594</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>131.5799710427302</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23740,19 +23740,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>133.6478624230681</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>147.8156668737693</v>
       </c>
       <c r="G17" t="n">
-        <v>407.1030088170024</v>
+        <v>173.7704330090667</v>
       </c>
       <c r="H17" t="n">
         <v>301.0958697879348</v>
       </c>
       <c r="I17" t="n">
-        <v>62.61993259844904</v>
+        <v>62.61993259844901</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.53520920891619</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.825254881377</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0409527385574</v>
       </c>
       <c r="V17" t="n">
-        <v>73.77591399196399</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>102.3792174698426</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>72.48487984812994</v>
       </c>
       <c r="C18" t="n">
         <v>149.1476881355087</v>
@@ -23822,7 +23822,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>117.8275850600053</v>
@@ -23831,7 +23831,7 @@
         <v>77.45102300362777</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13.37438009968258</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>114.2266161241662</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -23892,19 +23892,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>57.46226412181252</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H19" t="n">
         <v>146.2341261174519</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>163.9782144118685</v>
       </c>
       <c r="U19" t="n">
-        <v>17.62740092705934</v>
+        <v>17.6274009270594</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>147.8156668737693</v>
       </c>
       <c r="G20" t="n">
         <v>407.1030088170024</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0958697879348</v>
+        <v>124.7212517852985</v>
       </c>
       <c r="I20" t="n">
-        <v>30.2437371988953</v>
+        <v>62.61993259844901</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>120.9114046084703</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>73.77591399196416</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>102.3792174698428</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24056,19 +24056,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>77.45102300362777</v>
       </c>
       <c r="I21" t="n">
-        <v>1.410328232449295</v>
+        <v>13.37438009968258</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,13 +24101,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>171.055761932852</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.8946411849309</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>31.26581421100087</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>165.7066254932732</v>
+        <v>162.5232931960158</v>
       </c>
       <c r="H22" t="n">
         <v>146.2341261174519</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>78.5170559079929</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S22" t="n">
         <v>185.7152862203266</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U22" t="n">
-        <v>17.62740092705949</v>
+        <v>17.62740092705945</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>15.58727083658152</v>
+        <v>15.58727083658147</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24211,22 +24211,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>116.6768902839462</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>133.6478624230681</v>
       </c>
       <c r="F23" t="n">
         <v>147.8156668737693</v>
       </c>
       <c r="G23" t="n">
-        <v>142.1931816054497</v>
+        <v>407.1030088170024</v>
       </c>
       <c r="H23" t="n">
-        <v>36.18604257638208</v>
+        <v>301.0958697879348</v>
       </c>
       <c r="I23" t="n">
-        <v>62.61993259844904</v>
+        <v>62.61993259844903</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>253.0409527385574</v>
       </c>
       <c r="V23" t="n">
-        <v>105.3531653955812</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24274,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>159.1932261806693</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>150.0857787656014</v>
       </c>
       <c r="C24" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>117.8275850600053</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>77.45102300362777</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>115.3517207338251</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>120.0270693013794</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24420,19 +24420,19 @@
         <v>229.6664313308158</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5372281386121</v>
+        <v>56.95928938695658</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>15.58727083658147</v>
+        <v>15.58727083658141</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>124.333919270546</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>133.6478624230682</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>407.1030088170024</v>
+        <v>142.1931816054496</v>
       </c>
       <c r="H26" t="n">
         <v>301.0958697879348</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>62.61993259844901</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>120.9114046084703</v>
       </c>
       <c r="T26" t="n">
-        <v>163.0240162803607</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0409527385574</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24511,7 +24511,7 @@
         <v>120.648251804721</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>360.149606589051</v>
       </c>
     </row>
     <row r="27">
@@ -24533,10 +24533,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>117.8275850600053</v>
+        <v>110.7259254517682</v>
       </c>
       <c r="H27" t="n">
         <v>77.45102300362777</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.0858284474626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24612,7 +24612,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.7066254932732</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U28" t="n">
-        <v>17.62740092705944</v>
+        <v>17.6274009270594</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>7.779002194558643</v>
       </c>
       <c r="W28" t="n">
-        <v>279.819612964901</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24688,19 +24688,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>133.6478624230681</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>147.8156668737692</v>
+        <v>147.8156668737693</v>
       </c>
       <c r="G29" t="n">
-        <v>142.1931816054496</v>
+        <v>407.1030088170024</v>
       </c>
       <c r="H29" t="n">
-        <v>67.76329397999896</v>
+        <v>36.18604257638202</v>
       </c>
       <c r="I29" t="n">
-        <v>62.61993259844903</v>
+        <v>62.61993259844901</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>120.9114046084703</v>
       </c>
       <c r="T29" t="n">
-        <v>212.825254881377</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0409527385574</v>
+        <v>232.5336318119988</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24745,7 +24745,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>120.648251804721</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24761,10 +24761,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
         <v>135.0820259802211</v>
@@ -24779,7 +24779,7 @@
         <v>77.45102300362777</v>
       </c>
       <c r="I30" t="n">
-        <v>13.37438009968258</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>114.4192084551167</v>
       </c>
       <c r="T30" t="n">
-        <v>36.55272000156404</v>
+        <v>171.055761932852</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>6.272720491445426</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>44.54050715286006</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.2341261174519</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.7539441251484</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.6664313308158</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5372281386121</v>
+        <v>209.3722379221774</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -24922,10 +24922,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>217.0809739658576</v>
       </c>
       <c r="E32" t="n">
-        <v>133.6478624230681</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -24937,7 +24937,7 @@
         <v>301.0958697879348</v>
       </c>
       <c r="I32" t="n">
-        <v>62.61993259844903</v>
+        <v>62.61993259844901</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>88.5352092089162</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0409527385574</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>73.77591399196399</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>102.3792174698426</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>127.6159747770521</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>149.1476881355087</v>
@@ -25004,16 +25004,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>38.12544948706881</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.8275850600053</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>77.45102300362777</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25049,22 +25049,22 @@
         <v>114.4192084551167</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>107.2922519082053</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>156.873361103481</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>146.2341261174519</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.7539441251484</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5372281386121</v>
+        <v>242.8467214446133</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>15.58727083658135</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25156,16 +25156,16 @@
         <v>131.5799710427302</v>
       </c>
       <c r="C35" t="n">
-        <v>124.3339192705459</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>148.2541416875633</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>179.3929182773864</v>
+        <v>147.8156668737693</v>
       </c>
       <c r="G35" t="n">
         <v>407.1030088170024</v>
@@ -25174,7 +25174,7 @@
         <v>301.0958697879348</v>
       </c>
       <c r="I35" t="n">
-        <v>62.61993259844903</v>
+        <v>62.61993259844901</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>120.648251804721</v>
       </c>
       <c r="Y35" t="n">
-        <v>127.6159747770521</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>99.11977621467621</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.8275850600053</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>77.45102300362777</v>
       </c>
       <c r="I36" t="n">
-        <v>13.37438009968258</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T36" t="n">
         <v>171.055761932852</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8946411849309</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>6.272720491445455</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25317,22 +25317,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>128.0892064633055</v>
       </c>
       <c r="H37" t="n">
         <v>146.2341261174519</v>
       </c>
       <c r="I37" t="n">
-        <v>42.70692868854121</v>
+        <v>105.7539441251484</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>229.6664313308158</v>
       </c>
       <c r="U37" t="n">
-        <v>17.62740092705938</v>
+        <v>17.6274009270594</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>15.58727083658141</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>131.5799710427301</v>
+        <v>131.5799710427302</v>
       </c>
       <c r="C38" t="n">
         <v>124.3339192705459</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>148.2541416875633</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -25408,10 +25408,10 @@
         <v>407.1030088170024</v>
       </c>
       <c r="H38" t="n">
-        <v>130.383226578448</v>
+        <v>301.0958697879348</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>62.61993259844901</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>120.648251804721</v>
       </c>
       <c r="Y38" t="n">
-        <v>127.6159747770521</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25472,16 +25472,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>117.8275850600053</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>114.4192084551167</v>
+        <v>24.60193143109693</v>
       </c>
       <c r="T39" t="n">
-        <v>65.54448518878357</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>207.8946411849309</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25563,10 +25563,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>165.7066254932732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>146.2341261174519</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>105.7539441251484</v>
@@ -25605,19 +25605,19 @@
         <v>229.6664313308158</v>
       </c>
       <c r="U40" t="n">
-        <v>25.32078513314019</v>
+        <v>233.9723531100388</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>15.58727083658135</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,7 +25636,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>133.6478624230681</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -25645,10 +25645,10 @@
         <v>407.1030088170024</v>
       </c>
       <c r="H41" t="n">
-        <v>130.383226578448</v>
+        <v>301.0958697879348</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>62.61993259844903</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>102.3792174698426</v>
       </c>
       <c r="X41" t="n">
-        <v>120.6482518047209</v>
+        <v>152.225503208338</v>
       </c>
       <c r="Y41" t="n">
-        <v>127.6159747770521</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>142.0460285272713</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
@@ -25724,7 +25724,7 @@
         <v>117.8275850600053</v>
       </c>
       <c r="H42" t="n">
-        <v>70.00070977403968</v>
+        <v>77.45102300362777</v>
       </c>
       <c r="I42" t="n">
         <v>13.37438009968258</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>171.055761932852</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.74823485789234</v>
+        <v>165.7066254932732</v>
       </c>
       <c r="H43" t="n">
         <v>146.2341261174519</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>83.77347586928133</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.7152862203266</v>
       </c>
       <c r="T43" t="n">
-        <v>229.6664313308158</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5372281386121</v>
+        <v>17.62740092705934</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>106.4673688378385</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -25854,7 +25854,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,19 +25867,19 @@
         <v>131.5799710427301</v>
       </c>
       <c r="C44" t="n">
-        <v>155.9111706741629</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>116.6768902839461</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>133.6478624230681</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>407.1030088170024</v>
+        <v>142.1931816054496</v>
       </c>
       <c r="H44" t="n">
         <v>301.0958697879348</v>
@@ -25921,7 +25921,7 @@
         <v>212.825254881377</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0409527385574</v>
+        <v>19.70837693062165</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25933,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>127.6159747770521</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>128.7880777047345</v>
@@ -25958,7 +25958,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8275850600053</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>77.45102300362777</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>114.4192084551167</v>
       </c>
       <c r="T45" t="n">
-        <v>171.055761932852</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>203.1133021120828</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>107.3175488468795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,16 +26025,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.7539441251484</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>83.77347586928133</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>185.7152862203266</v>
@@ -26082,13 +26082,13 @@
         <v>282.5372281386121</v>
       </c>
       <c r="V46" t="n">
-        <v>38.6949330348998</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7274372119863</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>366341.4634393367</v>
+        <v>366341.4634393369</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>366341.4634393369</v>
+        <v>366341.4634393367</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>366341.4634393369</v>
+        <v>366341.4634393367</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>366341.4634393367</v>
+        <v>366341.4634393369</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>366341.4634393369</v>
+        <v>366341.4634393367</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>366341.4634393369</v>
+        <v>366341.4634393367</v>
       </c>
     </row>
     <row r="16">
@@ -26316,22 +26316,22 @@
         <v>485772.8004488132</v>
       </c>
       <c r="C2" t="n">
-        <v>485772.8004488132</v>
+        <v>485772.8004488133</v>
       </c>
       <c r="D2" t="n">
-        <v>485772.8004488132</v>
+        <v>485772.8004488131</v>
       </c>
       <c r="E2" t="n">
-        <v>217424.3568126659</v>
+        <v>217424.356812666</v>
       </c>
       <c r="F2" t="n">
-        <v>217424.3568126659</v>
+        <v>217424.356812666</v>
       </c>
       <c r="G2" t="n">
         <v>217424.356812666</v>
       </c>
       <c r="H2" t="n">
-        <v>217424.356812666</v>
+        <v>217424.3568126659</v>
       </c>
       <c r="I2" t="n">
         <v>217424.3568126659</v>
@@ -26346,7 +26346,7 @@
         <v>217424.356812666</v>
       </c>
       <c r="M2" t="n">
-        <v>217424.3568126659</v>
+        <v>217424.356812666</v>
       </c>
       <c r="N2" t="n">
         <v>217424.3568126659</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>297409.6386824099</v>
+        <v>297409.63868241</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,31 +26429,31 @@
         <v>20302.76028832121</v>
       </c>
       <c r="F4" t="n">
-        <v>20302.7602883212</v>
+        <v>20302.76028832119</v>
       </c>
       <c r="G4" t="n">
-        <v>20302.76028832121</v>
+        <v>20302.76028832119</v>
       </c>
       <c r="H4" t="n">
-        <v>20302.76028832119</v>
+        <v>20302.76028832118</v>
       </c>
       <c r="I4" t="n">
         <v>20302.76028832119</v>
       </c>
       <c r="J4" t="n">
+        <v>20302.76028832118</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20302.76028832118</v>
+      </c>
+      <c r="L4" t="n">
         <v>20302.76028832119</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20302.7602883212</v>
-      </c>
-      <c r="L4" t="n">
-        <v>20302.7602883212</v>
       </c>
       <c r="M4" t="n">
         <v>20302.76028832119</v>
       </c>
       <c r="N4" t="n">
-        <v>20302.7602883212</v>
+        <v>20302.76028832119</v>
       </c>
       <c r="O4" t="n">
         <v>20302.7602883212</v>
@@ -26478,7 +26478,7 @@
         <v>38159.46666611726</v>
       </c>
       <c r="E5" t="n">
-        <v>26562.22556021673</v>
+        <v>26562.22556021674</v>
       </c>
       <c r="F5" t="n">
         <v>26562.22556021673</v>
@@ -26490,10 +26490,10 @@
         <v>26562.22556021672</v>
       </c>
       <c r="I5" t="n">
-        <v>26562.22556021672</v>
+        <v>26562.22556021673</v>
       </c>
       <c r="J5" t="n">
-        <v>26562.22556021672</v>
+        <v>26562.22556021673</v>
       </c>
       <c r="K5" t="n">
         <v>26562.22556021673</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92726.90239435399</v>
+        <v>-92731.06565510671</v>
       </c>
       <c r="C6" t="n">
-        <v>107592.6220890063</v>
+        <v>107588.4588282537</v>
       </c>
       <c r="D6" t="n">
-        <v>107592.6220890063</v>
+        <v>107588.4588282535</v>
       </c>
       <c r="E6" t="n">
-        <v>-126850.267718282</v>
+        <v>-127848.3141036131</v>
       </c>
       <c r="F6" t="n">
-        <v>170559.3709641279</v>
+        <v>169561.3245787969</v>
       </c>
       <c r="G6" t="n">
-        <v>170559.370964128</v>
+        <v>169561.324578797</v>
       </c>
       <c r="H6" t="n">
-        <v>170559.3709641281</v>
+        <v>169561.3245787969</v>
       </c>
       <c r="I6" t="n">
-        <v>170559.370964128</v>
+        <v>169561.3245787969</v>
       </c>
       <c r="J6" t="n">
-        <v>170559.370964128</v>
+        <v>169561.3245787969</v>
       </c>
       <c r="K6" t="n">
-        <v>170559.3709641279</v>
+        <v>169561.3245787969</v>
       </c>
       <c r="L6" t="n">
-        <v>170559.3709641281</v>
+        <v>169561.3245787969</v>
       </c>
       <c r="M6" t="n">
-        <v>104542.7823837002</v>
+        <v>103544.7359983692</v>
       </c>
       <c r="N6" t="n">
-        <v>170559.370964128</v>
+        <v>169561.3245787969</v>
       </c>
       <c r="O6" t="n">
-        <v>170559.3709641281</v>
+        <v>169561.3245787969</v>
       </c>
       <c r="P6" t="n">
-        <v>170559.370964128</v>
+        <v>169561.3245787969</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>207.8837920237277</v>
       </c>
       <c r="E3" t="n">
-        <v>479.6196360437761</v>
+        <v>479.6196360437762</v>
       </c>
       <c r="F3" t="n">
         <v>479.6196360437762</v>
       </c>
       <c r="G3" t="n">
-        <v>479.6196360437761</v>
+        <v>479.6196360437762</v>
       </c>
       <c r="H3" t="n">
-        <v>479.619636043776</v>
+        <v>479.6196360437762</v>
       </c>
       <c r="I3" t="n">
-        <v>479.6196360437761</v>
+        <v>479.6196360437762</v>
       </c>
       <c r="J3" t="n">
         <v>479.6196360437762</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115529</v>
       </c>
       <c r="F4" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="G4" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="H4" t="n">
-        <v>264.9098272115526</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="I4" t="n">
         <v>264.9098272115527</v>
@@ -26816,7 +26816,7 @@
         <v>264.9098272115527</v>
       </c>
       <c r="K4" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="L4" t="n">
         <v>264.9098272115528</v>
@@ -26825,7 +26825,7 @@
         <v>264.9098272115527</v>
       </c>
       <c r="N4" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="O4" t="n">
         <v>264.9098272115528</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271.7358440200484</v>
+        <v>271.7358440200485</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>1.928119139874475</v>
       </c>
       <c r="H11" t="n">
-        <v>19.74635014123947</v>
+        <v>19.74635014123948</v>
       </c>
       <c r="I11" t="n">
-        <v>74.33381314001078</v>
+        <v>74.33381314001079</v>
       </c>
       <c r="J11" t="n">
         <v>163.6467018479214</v>
@@ -31770,7 +31770,7 @@
         <v>304.2716611657415</v>
       </c>
       <c r="M11" t="n">
-        <v>338.5608499194842</v>
+        <v>338.5608499194843</v>
       </c>
       <c r="N11" t="n">
         <v>344.0391184256526</v>
@@ -31834,13 +31834,13 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H12" t="n">
-        <v>9.963419231777312</v>
+        <v>9.963419231777314</v>
       </c>
       <c r="I12" t="n">
-        <v>35.51900134852493</v>
+        <v>35.51900134852494</v>
       </c>
       <c r="J12" t="n">
-        <v>97.46685452848097</v>
+        <v>97.46685452848098</v>
       </c>
       <c r="K12" t="n">
         <v>166.5863786813557</v>
@@ -31864,7 +31864,7 @@
         <v>131.6872630888496</v>
       </c>
       <c r="R12" t="n">
-        <v>64.05184497958204</v>
+        <v>64.05184497958206</v>
       </c>
       <c r="S12" t="n">
         <v>19.16216187401312</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8648878682756617</v>
+        <v>0.8648878682756618</v>
       </c>
       <c r="H13" t="n">
-        <v>7.689639410669071</v>
+        <v>7.689639410669072</v>
       </c>
       <c r="I13" t="n">
-        <v>26.00953698414445</v>
+        <v>26.00953698414446</v>
       </c>
       <c r="J13" t="n">
-        <v>61.14757228708928</v>
+        <v>61.14757228708929</v>
       </c>
       <c r="K13" t="n">
         <v>100.4842450596632</v>
@@ -31940,7 +31940,7 @@
         <v>104.6042563594491</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.42256504261019</v>
+        <v>72.4225650426102</v>
       </c>
       <c r="R13" t="n">
         <v>38.88850360446747</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.928119139874475</v>
+        <v>1.928119139874476</v>
       </c>
       <c r="H17" t="n">
-        <v>19.74635014123947</v>
+        <v>19.74635014123948</v>
       </c>
       <c r="I17" t="n">
-        <v>74.33381314001078</v>
+        <v>74.3338131400108</v>
       </c>
       <c r="J17" t="n">
         <v>163.6467018479214</v>
@@ -32241,13 +32241,13 @@
         <v>245.263985038808</v>
       </c>
       <c r="L17" t="n">
-        <v>304.2716611657415</v>
+        <v>304.2716611657416</v>
       </c>
       <c r="M17" t="n">
-        <v>338.5608499194842</v>
+        <v>338.5608499194843</v>
       </c>
       <c r="N17" t="n">
-        <v>344.0391184256526</v>
+        <v>344.0391184256527</v>
       </c>
       <c r="O17" t="n">
         <v>324.8663837285258</v>
@@ -32262,10 +32262,10 @@
         <v>121.1172139201401</v>
       </c>
       <c r="S17" t="n">
-        <v>43.93701489988965</v>
+        <v>43.93701489988966</v>
       </c>
       <c r="T17" t="n">
-        <v>8.44034153480052</v>
+        <v>8.440341534800522</v>
       </c>
       <c r="U17" t="n">
         <v>0.154249531189958</v>
@@ -32308,22 +32308,22 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H18" t="n">
-        <v>9.963419231777312</v>
+        <v>9.963419231777316</v>
       </c>
       <c r="I18" t="n">
-        <v>35.51900134852493</v>
+        <v>35.51900134852495</v>
       </c>
       <c r="J18" t="n">
-        <v>97.46685452848097</v>
+        <v>97.46685452848099</v>
       </c>
       <c r="K18" t="n">
-        <v>166.5863786813557</v>
+        <v>166.5863786813558</v>
       </c>
       <c r="L18" t="n">
-        <v>223.9959441730862</v>
+        <v>223.9959441730863</v>
       </c>
       <c r="M18" t="n">
-        <v>261.3927016438579</v>
+        <v>261.392701643858</v>
       </c>
       <c r="N18" t="n">
         <v>268.3109886581121</v>
@@ -32335,10 +32335,10 @@
         <v>196.9969784346597</v>
       </c>
       <c r="Q18" t="n">
-        <v>131.6872630888496</v>
+        <v>131.6872630888497</v>
       </c>
       <c r="R18" t="n">
-        <v>64.05184497958204</v>
+        <v>64.05184497958207</v>
       </c>
       <c r="S18" t="n">
         <v>19.16216187401312</v>
@@ -32347,7 +32347,7 @@
         <v>4.158211750228586</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06787070321374193</v>
+        <v>0.06787070321374195</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8648878682756617</v>
+        <v>0.8648878682756619</v>
       </c>
       <c r="H19" t="n">
-        <v>7.689639410669071</v>
+        <v>7.689639410669073</v>
       </c>
       <c r="I19" t="n">
-        <v>26.00953698414445</v>
+        <v>26.00953698414446</v>
       </c>
       <c r="J19" t="n">
-        <v>61.14757228708928</v>
+        <v>61.1475722870893</v>
       </c>
       <c r="K19" t="n">
-        <v>100.4842450596632</v>
+        <v>100.4842450596633</v>
       </c>
       <c r="L19" t="n">
         <v>128.585238161638</v>
       </c>
       <c r="M19" t="n">
-        <v>135.5751046607021</v>
+        <v>135.5751046607022</v>
       </c>
       <c r="N19" t="n">
         <v>132.3514316971293</v>
@@ -32414,19 +32414,19 @@
         <v>104.6042563594491</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.42256504261019</v>
+        <v>72.4225650426102</v>
       </c>
       <c r="R19" t="n">
-        <v>38.88850360446747</v>
+        <v>38.88850360446748</v>
       </c>
       <c r="S19" t="n">
-        <v>15.07263675894948</v>
+        <v>15.07263675894949</v>
       </c>
       <c r="T19" t="n">
-        <v>3.695429982632372</v>
+        <v>3.695429982632373</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04717570190594524</v>
+        <v>0.04717570190594525</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.928119139874475</v>
+        <v>1.928119139874476</v>
       </c>
       <c r="H20" t="n">
-        <v>19.74635014123947</v>
+        <v>19.74635014123948</v>
       </c>
       <c r="I20" t="n">
-        <v>74.33381314001078</v>
+        <v>74.3338131400108</v>
       </c>
       <c r="J20" t="n">
         <v>163.6467018479214</v>
@@ -32478,16 +32478,16 @@
         <v>245.263985038808</v>
       </c>
       <c r="L20" t="n">
-        <v>304.2716611657415</v>
+        <v>304.2716611657416</v>
       </c>
       <c r="M20" t="n">
-        <v>338.5608499194842</v>
+        <v>338.5608499194843</v>
       </c>
       <c r="N20" t="n">
-        <v>344.0391184256525</v>
+        <v>344.0391184256527</v>
       </c>
       <c r="O20" t="n">
-        <v>324.8663837285257</v>
+        <v>324.8663837285258</v>
       </c>
       <c r="P20" t="n">
         <v>277.2659424628746</v>
@@ -32499,10 +32499,10 @@
         <v>121.1172139201401</v>
       </c>
       <c r="S20" t="n">
-        <v>43.93701489988965</v>
+        <v>43.93701489988966</v>
       </c>
       <c r="T20" t="n">
-        <v>8.440341534800519</v>
+        <v>8.440341534800522</v>
       </c>
       <c r="U20" t="n">
         <v>0.154249531189958</v>
@@ -32545,25 +32545,25 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H21" t="n">
-        <v>9.963419231777312</v>
+        <v>9.963419231777316</v>
       </c>
       <c r="I21" t="n">
-        <v>35.51900134852493</v>
+        <v>35.51900134852495</v>
       </c>
       <c r="J21" t="n">
-        <v>97.46685452848095</v>
+        <v>97.46685452848099</v>
       </c>
       <c r="K21" t="n">
-        <v>166.5863786813557</v>
+        <v>166.5863786813558</v>
       </c>
       <c r="L21" t="n">
-        <v>223.9959441730862</v>
+        <v>223.9959441730863</v>
       </c>
       <c r="M21" t="n">
-        <v>261.3927016438579</v>
+        <v>261.392701643858</v>
       </c>
       <c r="N21" t="n">
-        <v>268.310988658112</v>
+        <v>268.3109886581121</v>
       </c>
       <c r="O21" t="n">
         <v>245.4521358157238</v>
@@ -32572,10 +32572,10 @@
         <v>196.9969784346597</v>
       </c>
       <c r="Q21" t="n">
-        <v>131.6872630888496</v>
+        <v>131.6872630888497</v>
       </c>
       <c r="R21" t="n">
-        <v>64.05184497958204</v>
+        <v>64.05184497958207</v>
       </c>
       <c r="S21" t="n">
         <v>19.16216187401312</v>
@@ -32584,7 +32584,7 @@
         <v>4.158211750228586</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06787070321374192</v>
+        <v>0.06787070321374195</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8648878682756616</v>
+        <v>0.8648878682756619</v>
       </c>
       <c r="H22" t="n">
-        <v>7.68963941066907</v>
+        <v>7.689639410669073</v>
       </c>
       <c r="I22" t="n">
-        <v>26.00953698414445</v>
+        <v>26.00953698414446</v>
       </c>
       <c r="J22" t="n">
-        <v>61.14757228708928</v>
+        <v>61.1475722870893</v>
       </c>
       <c r="K22" t="n">
-        <v>100.4842450596632</v>
+        <v>100.4842450596633</v>
       </c>
       <c r="L22" t="n">
-        <v>128.5852381616379</v>
+        <v>128.585238161638</v>
       </c>
       <c r="M22" t="n">
-        <v>135.5751046607021</v>
+        <v>135.5751046607022</v>
       </c>
       <c r="N22" t="n">
         <v>132.3514316971293</v>
@@ -32651,19 +32651,19 @@
         <v>104.6042563594491</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.42256504261017</v>
+        <v>72.4225650426102</v>
       </c>
       <c r="R22" t="n">
-        <v>38.88850360446747</v>
+        <v>38.88850360446748</v>
       </c>
       <c r="S22" t="n">
-        <v>15.07263675894948</v>
+        <v>15.07263675894949</v>
       </c>
       <c r="T22" t="n">
-        <v>3.695429982632371</v>
+        <v>3.695429982632373</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04717570190594524</v>
+        <v>0.04717570190594525</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>1.928119139874475</v>
       </c>
       <c r="H23" t="n">
-        <v>19.74635014123947</v>
+        <v>19.74635014123948</v>
       </c>
       <c r="I23" t="n">
-        <v>74.33381314001078</v>
+        <v>74.33381314001079</v>
       </c>
       <c r="J23" t="n">
         <v>163.6467018479214</v>
@@ -32718,7 +32718,7 @@
         <v>304.2716611657415</v>
       </c>
       <c r="M23" t="n">
-        <v>338.5608499194842</v>
+        <v>338.5608499194843</v>
       </c>
       <c r="N23" t="n">
         <v>344.0391184256526</v>
@@ -32782,13 +32782,13 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H24" t="n">
-        <v>9.963419231777312</v>
+        <v>9.963419231777314</v>
       </c>
       <c r="I24" t="n">
-        <v>35.51900134852493</v>
+        <v>35.51900134852494</v>
       </c>
       <c r="J24" t="n">
-        <v>97.46685452848097</v>
+        <v>97.46685452848098</v>
       </c>
       <c r="K24" t="n">
         <v>166.5863786813557</v>
@@ -32812,7 +32812,7 @@
         <v>131.6872630888496</v>
       </c>
       <c r="R24" t="n">
-        <v>64.05184497958204</v>
+        <v>64.05184497958206</v>
       </c>
       <c r="S24" t="n">
         <v>19.16216187401312</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8648878682756617</v>
+        <v>0.8648878682756618</v>
       </c>
       <c r="H25" t="n">
-        <v>7.689639410669071</v>
+        <v>7.689639410669072</v>
       </c>
       <c r="I25" t="n">
-        <v>26.00953698414445</v>
+        <v>26.00953698414446</v>
       </c>
       <c r="J25" t="n">
-        <v>61.14757228708928</v>
+        <v>61.14757228708929</v>
       </c>
       <c r="K25" t="n">
         <v>100.4842450596632</v>
@@ -32888,7 +32888,7 @@
         <v>104.6042563594491</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.42256504261019</v>
+        <v>72.4225650426102</v>
       </c>
       <c r="R25" t="n">
         <v>38.88850360446747</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.928119139874475</v>
+        <v>1.928119139874476</v>
       </c>
       <c r="H26" t="n">
         <v>19.74635014123948</v>
       </c>
       <c r="I26" t="n">
-        <v>74.33381314001079</v>
+        <v>74.3338131400108</v>
       </c>
       <c r="J26" t="n">
         <v>163.6467018479214</v>
@@ -32952,13 +32952,13 @@
         <v>245.263985038808</v>
       </c>
       <c r="L26" t="n">
-        <v>304.2716611657415</v>
+        <v>304.2716611657416</v>
       </c>
       <c r="M26" t="n">
         <v>338.5608499194843</v>
       </c>
       <c r="N26" t="n">
-        <v>344.0391184256526</v>
+        <v>344.0391184256527</v>
       </c>
       <c r="O26" t="n">
         <v>324.8663837285258</v>
@@ -32973,10 +32973,10 @@
         <v>121.1172139201401</v>
       </c>
       <c r="S26" t="n">
-        <v>43.93701489988965</v>
+        <v>43.93701489988966</v>
       </c>
       <c r="T26" t="n">
-        <v>8.44034153480052</v>
+        <v>8.440341534800522</v>
       </c>
       <c r="U26" t="n">
         <v>0.154249531189958</v>
@@ -33019,22 +33019,22 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H27" t="n">
-        <v>9.963419231777314</v>
+        <v>9.963419231777316</v>
       </c>
       <c r="I27" t="n">
-        <v>35.51900134852494</v>
+        <v>35.51900134852495</v>
       </c>
       <c r="J27" t="n">
-        <v>97.46685452848098</v>
+        <v>97.46685452848099</v>
       </c>
       <c r="K27" t="n">
-        <v>166.5863786813557</v>
+        <v>166.5863786813558</v>
       </c>
       <c r="L27" t="n">
-        <v>223.9959441730862</v>
+        <v>223.9959441730863</v>
       </c>
       <c r="M27" t="n">
-        <v>261.3927016438579</v>
+        <v>261.392701643858</v>
       </c>
       <c r="N27" t="n">
         <v>268.3109886581121</v>
@@ -33046,10 +33046,10 @@
         <v>196.9969784346597</v>
       </c>
       <c r="Q27" t="n">
-        <v>131.6872630888496</v>
+        <v>131.6872630888497</v>
       </c>
       <c r="R27" t="n">
-        <v>64.05184497958206</v>
+        <v>64.05184497958207</v>
       </c>
       <c r="S27" t="n">
         <v>19.16216187401312</v>
@@ -33058,7 +33058,7 @@
         <v>4.158211750228586</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06787070321374193</v>
+        <v>0.06787070321374195</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8648878682756618</v>
+        <v>0.8648878682756619</v>
       </c>
       <c r="H28" t="n">
-        <v>7.689639410669072</v>
+        <v>7.689639410669073</v>
       </c>
       <c r="I28" t="n">
         <v>26.00953698414446</v>
       </c>
       <c r="J28" t="n">
-        <v>61.14757228708929</v>
+        <v>61.1475722870893</v>
       </c>
       <c r="K28" t="n">
-        <v>100.4842450596632</v>
+        <v>100.4842450596633</v>
       </c>
       <c r="L28" t="n">
         <v>128.585238161638</v>
       </c>
       <c r="M28" t="n">
-        <v>135.5751046607021</v>
+        <v>135.5751046607022</v>
       </c>
       <c r="N28" t="n">
         <v>132.3514316971293</v>
@@ -33128,16 +33128,16 @@
         <v>72.4225650426102</v>
       </c>
       <c r="R28" t="n">
-        <v>38.88850360446747</v>
+        <v>38.88850360446748</v>
       </c>
       <c r="S28" t="n">
-        <v>15.07263675894948</v>
+        <v>15.07263675894949</v>
       </c>
       <c r="T28" t="n">
-        <v>3.695429982632372</v>
+        <v>3.695429982632373</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04717570190594524</v>
+        <v>0.04717570190594525</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.928119139874475</v>
+        <v>1.928119139874476</v>
       </c>
       <c r="H29" t="n">
         <v>19.74635014123948</v>
       </c>
       <c r="I29" t="n">
-        <v>74.33381314001079</v>
+        <v>74.3338131400108</v>
       </c>
       <c r="J29" t="n">
         <v>163.6467018479214</v>
@@ -33189,13 +33189,13 @@
         <v>245.263985038808</v>
       </c>
       <c r="L29" t="n">
-        <v>304.2716611657415</v>
+        <v>304.2716611657416</v>
       </c>
       <c r="M29" t="n">
         <v>338.5608499194843</v>
       </c>
       <c r="N29" t="n">
-        <v>344.0391184256526</v>
+        <v>344.0391184256527</v>
       </c>
       <c r="O29" t="n">
         <v>324.8663837285258</v>
@@ -33210,10 +33210,10 @@
         <v>121.1172139201401</v>
       </c>
       <c r="S29" t="n">
-        <v>43.93701489988965</v>
+        <v>43.93701489988966</v>
       </c>
       <c r="T29" t="n">
-        <v>8.44034153480052</v>
+        <v>8.440341534800522</v>
       </c>
       <c r="U29" t="n">
         <v>0.154249531189958</v>
@@ -33256,22 +33256,22 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H30" t="n">
-        <v>9.963419231777314</v>
+        <v>9.963419231777316</v>
       </c>
       <c r="I30" t="n">
-        <v>35.51900134852494</v>
+        <v>35.51900134852495</v>
       </c>
       <c r="J30" t="n">
-        <v>97.46685452848098</v>
+        <v>97.46685452848099</v>
       </c>
       <c r="K30" t="n">
-        <v>166.5863786813557</v>
+        <v>166.5863786813558</v>
       </c>
       <c r="L30" t="n">
-        <v>223.9959441730862</v>
+        <v>223.9959441730863</v>
       </c>
       <c r="M30" t="n">
-        <v>261.3927016438579</v>
+        <v>261.392701643858</v>
       </c>
       <c r="N30" t="n">
         <v>268.3109886581121</v>
@@ -33283,10 +33283,10 @@
         <v>196.9969784346597</v>
       </c>
       <c r="Q30" t="n">
-        <v>131.6872630888496</v>
+        <v>131.6872630888497</v>
       </c>
       <c r="R30" t="n">
-        <v>64.05184497958206</v>
+        <v>64.05184497958207</v>
       </c>
       <c r="S30" t="n">
         <v>19.16216187401312</v>
@@ -33295,7 +33295,7 @@
         <v>4.158211750228586</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06787070321374193</v>
+        <v>0.06787070321374195</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8648878682756618</v>
+        <v>0.8648878682756619</v>
       </c>
       <c r="H31" t="n">
-        <v>7.689639410669072</v>
+        <v>7.689639410669073</v>
       </c>
       <c r="I31" t="n">
         <v>26.00953698414446</v>
       </c>
       <c r="J31" t="n">
-        <v>61.14757228708929</v>
+        <v>61.1475722870893</v>
       </c>
       <c r="K31" t="n">
-        <v>100.4842450596632</v>
+        <v>100.4842450596633</v>
       </c>
       <c r="L31" t="n">
         <v>128.585238161638</v>
       </c>
       <c r="M31" t="n">
-        <v>135.5751046607021</v>
+        <v>135.5751046607022</v>
       </c>
       <c r="N31" t="n">
         <v>132.3514316971293</v>
@@ -33365,16 +33365,16 @@
         <v>72.4225650426102</v>
       </c>
       <c r="R31" t="n">
-        <v>38.88850360446747</v>
+        <v>38.88850360446748</v>
       </c>
       <c r="S31" t="n">
-        <v>15.07263675894948</v>
+        <v>15.07263675894949</v>
       </c>
       <c r="T31" t="n">
-        <v>3.695429982632372</v>
+        <v>3.695429982632373</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04717570190594524</v>
+        <v>0.04717570190594525</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.928119139874475</v>
+        <v>1.928119139874476</v>
       </c>
       <c r="H32" t="n">
         <v>19.74635014123948</v>
       </c>
       <c r="I32" t="n">
-        <v>74.33381314001079</v>
+        <v>74.3338131400108</v>
       </c>
       <c r="J32" t="n">
         <v>163.6467018479214</v>
@@ -33426,13 +33426,13 @@
         <v>245.263985038808</v>
       </c>
       <c r="L32" t="n">
-        <v>304.2716611657415</v>
+        <v>304.2716611657416</v>
       </c>
       <c r="M32" t="n">
         <v>338.5608499194843</v>
       </c>
       <c r="N32" t="n">
-        <v>344.0391184256526</v>
+        <v>344.0391184256527</v>
       </c>
       <c r="O32" t="n">
         <v>324.8663837285258</v>
@@ -33447,10 +33447,10 @@
         <v>121.1172139201401</v>
       </c>
       <c r="S32" t="n">
-        <v>43.93701489988965</v>
+        <v>43.93701489988966</v>
       </c>
       <c r="T32" t="n">
-        <v>8.44034153480052</v>
+        <v>8.440341534800522</v>
       </c>
       <c r="U32" t="n">
         <v>0.154249531189958</v>
@@ -33493,22 +33493,22 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H33" t="n">
-        <v>9.963419231777314</v>
+        <v>9.963419231777316</v>
       </c>
       <c r="I33" t="n">
-        <v>35.51900134852494</v>
+        <v>35.51900134852495</v>
       </c>
       <c r="J33" t="n">
-        <v>97.46685452848098</v>
+        <v>97.46685452848099</v>
       </c>
       <c r="K33" t="n">
-        <v>166.5863786813557</v>
+        <v>166.5863786813558</v>
       </c>
       <c r="L33" t="n">
-        <v>223.9959441730862</v>
+        <v>223.9959441730863</v>
       </c>
       <c r="M33" t="n">
-        <v>261.3927016438579</v>
+        <v>261.392701643858</v>
       </c>
       <c r="N33" t="n">
         <v>268.3109886581121</v>
@@ -33520,10 +33520,10 @@
         <v>196.9969784346597</v>
       </c>
       <c r="Q33" t="n">
-        <v>131.6872630888496</v>
+        <v>131.6872630888497</v>
       </c>
       <c r="R33" t="n">
-        <v>64.05184497958206</v>
+        <v>64.05184497958207</v>
       </c>
       <c r="S33" t="n">
         <v>19.16216187401312</v>
@@ -33532,7 +33532,7 @@
         <v>4.158211750228586</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06787070321374193</v>
+        <v>0.06787070321374195</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8648878682756618</v>
+        <v>0.8648878682756619</v>
       </c>
       <c r="H34" t="n">
-        <v>7.689639410669072</v>
+        <v>7.689639410669073</v>
       </c>
       <c r="I34" t="n">
         <v>26.00953698414446</v>
       </c>
       <c r="J34" t="n">
-        <v>61.14757228708929</v>
+        <v>61.1475722870893</v>
       </c>
       <c r="K34" t="n">
-        <v>100.4842450596632</v>
+        <v>100.4842450596633</v>
       </c>
       <c r="L34" t="n">
         <v>128.585238161638</v>
       </c>
       <c r="M34" t="n">
-        <v>135.5751046607021</v>
+        <v>135.5751046607022</v>
       </c>
       <c r="N34" t="n">
         <v>132.3514316971293</v>
@@ -33602,16 +33602,16 @@
         <v>72.4225650426102</v>
       </c>
       <c r="R34" t="n">
-        <v>38.88850360446747</v>
+        <v>38.88850360446748</v>
       </c>
       <c r="S34" t="n">
-        <v>15.07263675894948</v>
+        <v>15.07263675894949</v>
       </c>
       <c r="T34" t="n">
-        <v>3.695429982632372</v>
+        <v>3.695429982632373</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04717570190594524</v>
+        <v>0.04717570190594525</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.928119139874475</v>
+        <v>1.928119139874476</v>
       </c>
       <c r="H35" t="n">
         <v>19.74635014123948</v>
       </c>
       <c r="I35" t="n">
-        <v>74.33381314001079</v>
+        <v>74.3338131400108</v>
       </c>
       <c r="J35" t="n">
         <v>163.6467018479214</v>
@@ -33663,13 +33663,13 @@
         <v>245.263985038808</v>
       </c>
       <c r="L35" t="n">
-        <v>304.2716611657415</v>
+        <v>304.2716611657416</v>
       </c>
       <c r="M35" t="n">
         <v>338.5608499194843</v>
       </c>
       <c r="N35" t="n">
-        <v>344.0391184256526</v>
+        <v>344.0391184256527</v>
       </c>
       <c r="O35" t="n">
         <v>324.8663837285258</v>
@@ -33684,10 +33684,10 @@
         <v>121.1172139201401</v>
       </c>
       <c r="S35" t="n">
-        <v>43.93701489988965</v>
+        <v>43.93701489988966</v>
       </c>
       <c r="T35" t="n">
-        <v>8.44034153480052</v>
+        <v>8.440341534800522</v>
       </c>
       <c r="U35" t="n">
         <v>0.154249531189958</v>
@@ -33730,22 +33730,22 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H36" t="n">
-        <v>9.963419231777314</v>
+        <v>9.963419231777316</v>
       </c>
       <c r="I36" t="n">
-        <v>35.51900134852494</v>
+        <v>35.51900134852495</v>
       </c>
       <c r="J36" t="n">
-        <v>97.46685452848098</v>
+        <v>97.46685452848099</v>
       </c>
       <c r="K36" t="n">
-        <v>166.5863786813557</v>
+        <v>166.5863786813558</v>
       </c>
       <c r="L36" t="n">
-        <v>223.9959441730862</v>
+        <v>223.9959441730863</v>
       </c>
       <c r="M36" t="n">
-        <v>261.3927016438579</v>
+        <v>261.392701643858</v>
       </c>
       <c r="N36" t="n">
         <v>268.3109886581121</v>
@@ -33757,10 +33757,10 @@
         <v>196.9969784346597</v>
       </c>
       <c r="Q36" t="n">
-        <v>131.6872630888496</v>
+        <v>131.6872630888497</v>
       </c>
       <c r="R36" t="n">
-        <v>64.05184497958206</v>
+        <v>64.05184497958207</v>
       </c>
       <c r="S36" t="n">
         <v>19.16216187401312</v>
@@ -33769,7 +33769,7 @@
         <v>4.158211750228586</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06787070321374193</v>
+        <v>0.06787070321374195</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8648878682756618</v>
+        <v>0.8648878682756619</v>
       </c>
       <c r="H37" t="n">
-        <v>7.689639410669072</v>
+        <v>7.689639410669073</v>
       </c>
       <c r="I37" t="n">
         <v>26.00953698414446</v>
       </c>
       <c r="J37" t="n">
-        <v>61.14757228708929</v>
+        <v>61.1475722870893</v>
       </c>
       <c r="K37" t="n">
-        <v>100.4842450596632</v>
+        <v>100.4842450596633</v>
       </c>
       <c r="L37" t="n">
         <v>128.585238161638</v>
       </c>
       <c r="M37" t="n">
-        <v>135.5751046607021</v>
+        <v>135.5751046607022</v>
       </c>
       <c r="N37" t="n">
         <v>132.3514316971293</v>
@@ -33839,16 +33839,16 @@
         <v>72.4225650426102</v>
       </c>
       <c r="R37" t="n">
-        <v>38.88850360446747</v>
+        <v>38.88850360446748</v>
       </c>
       <c r="S37" t="n">
-        <v>15.07263675894948</v>
+        <v>15.07263675894949</v>
       </c>
       <c r="T37" t="n">
-        <v>3.695429982632372</v>
+        <v>3.695429982632373</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04717570190594524</v>
+        <v>0.04717570190594525</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.928119139874475</v>
+        <v>1.928119139874476</v>
       </c>
       <c r="H38" t="n">
         <v>19.74635014123948</v>
       </c>
       <c r="I38" t="n">
-        <v>74.33381314001079</v>
+        <v>74.3338131400108</v>
       </c>
       <c r="J38" t="n">
         <v>163.6467018479214</v>
@@ -33900,13 +33900,13 @@
         <v>245.263985038808</v>
       </c>
       <c r="L38" t="n">
-        <v>304.2716611657415</v>
+        <v>304.2716611657416</v>
       </c>
       <c r="M38" t="n">
         <v>338.5608499194843</v>
       </c>
       <c r="N38" t="n">
-        <v>344.0391184256526</v>
+        <v>344.0391184256527</v>
       </c>
       <c r="O38" t="n">
         <v>324.8663837285258</v>
@@ -33921,10 +33921,10 @@
         <v>121.1172139201401</v>
       </c>
       <c r="S38" t="n">
-        <v>43.93701489988965</v>
+        <v>43.93701489988966</v>
       </c>
       <c r="T38" t="n">
-        <v>8.44034153480052</v>
+        <v>8.440341534800522</v>
       </c>
       <c r="U38" t="n">
         <v>0.154249531189958</v>
@@ -33967,22 +33967,22 @@
         <v>1.031634688848877</v>
       </c>
       <c r="H39" t="n">
-        <v>9.963419231777314</v>
+        <v>9.963419231777316</v>
       </c>
       <c r="I39" t="n">
-        <v>35.51900134852494</v>
+        <v>35.51900134852495</v>
       </c>
       <c r="J39" t="n">
-        <v>97.46685452848098</v>
+        <v>97.46685452848099</v>
       </c>
       <c r="K39" t="n">
-        <v>166.5863786813557</v>
+        <v>166.5863786813558</v>
       </c>
       <c r="L39" t="n">
-        <v>223.9959441730862</v>
+        <v>223.9959441730863</v>
       </c>
       <c r="M39" t="n">
-        <v>261.3927016438579</v>
+        <v>261.392701643858</v>
       </c>
       <c r="N39" t="n">
         <v>268.3109886581121</v>
@@ -33994,10 +33994,10 @@
         <v>196.9969784346597</v>
       </c>
       <c r="Q39" t="n">
-        <v>131.6872630888496</v>
+        <v>131.6872630888497</v>
       </c>
       <c r="R39" t="n">
-        <v>64.05184497958206</v>
+        <v>64.05184497958207</v>
       </c>
       <c r="S39" t="n">
         <v>19.16216187401312</v>
@@ -34006,7 +34006,7 @@
         <v>4.158211750228586</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06787070321374193</v>
+        <v>0.06787070321374195</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8648878682756618</v>
+        <v>0.8648878682756619</v>
       </c>
       <c r="H40" t="n">
-        <v>7.689639410669072</v>
+        <v>7.689639410669073</v>
       </c>
       <c r="I40" t="n">
         <v>26.00953698414446</v>
       </c>
       <c r="J40" t="n">
-        <v>61.14757228708929</v>
+        <v>61.1475722870893</v>
       </c>
       <c r="K40" t="n">
-        <v>100.4842450596632</v>
+        <v>100.4842450596633</v>
       </c>
       <c r="L40" t="n">
         <v>128.585238161638</v>
       </c>
       <c r="M40" t="n">
-        <v>135.5751046607021</v>
+        <v>135.5751046607022</v>
       </c>
       <c r="N40" t="n">
         <v>132.3514316971293</v>
@@ -34076,16 +34076,16 @@
         <v>72.4225650426102</v>
       </c>
       <c r="R40" t="n">
-        <v>38.88850360446747</v>
+        <v>38.88850360446748</v>
       </c>
       <c r="S40" t="n">
-        <v>15.07263675894948</v>
+        <v>15.07263675894949</v>
       </c>
       <c r="T40" t="n">
-        <v>3.695429982632372</v>
+        <v>3.695429982632373</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04717570190594524</v>
+        <v>0.04717570190594525</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34149,7 +34149,7 @@
         <v>324.8663837285258</v>
       </c>
       <c r="P41" t="n">
-        <v>277.265942462875</v>
+        <v>277.2659424628746</v>
       </c>
       <c r="Q41" t="n">
         <v>208.2151757661199</v>
@@ -35412,7 +35412,7 @@
         <v>45.96686390557531</v>
       </c>
       <c r="K11" t="n">
-        <v>102.2055818595706</v>
+        <v>102.2055818595707</v>
       </c>
       <c r="L11" t="n">
         <v>151.0234914352498</v>
@@ -35421,7 +35421,7 @@
         <v>188.835798321757</v>
       </c>
       <c r="N11" t="n">
-        <v>194.9206270878685</v>
+        <v>194.9206270878686</v>
       </c>
       <c r="O11" t="n">
         <v>175.3025463044294</v>
@@ -35430,7 +35430,7 @@
         <v>126.9644952219494</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.71647734772773</v>
+        <v>63.71647734772776</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>142.3151126376649</v>
       </c>
       <c r="K12" t="n">
-        <v>76.98944334802236</v>
+        <v>76.98944334802239</v>
       </c>
       <c r="L12" t="n">
         <v>133.935597316168</v>
@@ -35500,7 +35500,7 @@
         <v>169.005579594546</v>
       </c>
       <c r="N12" t="n">
-        <v>182.9388758039454</v>
+        <v>182.9388758039455</v>
       </c>
       <c r="O12" t="n">
         <v>152.7645769268349</v>
@@ -35512,7 +35512,7 @@
         <v>40.69910993293566</v>
       </c>
       <c r="R12" t="n">
-        <v>40.37397230866594</v>
+        <v>40.37397230866596</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>31.07308481493022</v>
       </c>
       <c r="K13" t="n">
-        <v>16.62562724881523</v>
+        <v>183.1459027464732</v>
       </c>
       <c r="L13" t="n">
-        <v>264.9098272115528</v>
+        <v>40.91019857883308</v>
       </c>
       <c r="M13" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115529</v>
       </c>
       <c r="N13" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115529</v>
       </c>
       <c r="O13" t="n">
-        <v>146.6203898203888</v>
+        <v>173.0266581405206</v>
       </c>
       <c r="P13" t="n">
-        <v>15.08105372750315</v>
+        <v>15.08105372750316</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.87932905276267</v>
+        <v>75.87932905276269</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.02239719514763</v>
+        <v>182.6890849463304</v>
       </c>
       <c r="K15" t="n">
         <v>76.98944334802239</v>
@@ -35746,10 +35746,10 @@
         <v>109.913613615345</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.9918253754527</v>
+        <v>40.69910993293566</v>
       </c>
       <c r="R15" t="n">
-        <v>40.37397230866596</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>31.07308481493022</v>
       </c>
       <c r="K16" t="n">
         <v>183.1459027464732</v>
       </c>
       <c r="L16" t="n">
-        <v>264.9098272115528</v>
+        <v>40.91019857883308</v>
       </c>
       <c r="M16" t="n">
-        <v>45.27334509475885</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="N16" t="n">
         <v>49.35582779472776</v>
       </c>
       <c r="O16" t="n">
-        <v>204.6803570864458</v>
+        <v>253.8497478402038</v>
       </c>
       <c r="P16" t="n">
         <v>225.6912924974073</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.87932905276269</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.96686390557531</v>
+        <v>45.96686390557534</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2055818595706</v>
+        <v>102.2055818595707</v>
       </c>
       <c r="L17" t="n">
-        <v>151.0234914352498</v>
+        <v>151.0234914352499</v>
       </c>
       <c r="M17" t="n">
         <v>188.835798321757</v>
       </c>
       <c r="N17" t="n">
-        <v>194.9206270878685</v>
+        <v>194.9206270878686</v>
       </c>
       <c r="O17" t="n">
         <v>175.3025463044294</v>
@@ -35904,7 +35904,7 @@
         <v>126.9644952219494</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.71647734772773</v>
+        <v>63.71647734772776</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>142.3151126376649</v>
+        <v>182.6890849463304</v>
       </c>
       <c r="K18" t="n">
-        <v>76.98944334802236</v>
+        <v>76.98944334802242</v>
       </c>
       <c r="L18" t="n">
         <v>133.935597316168</v>
       </c>
       <c r="M18" t="n">
-        <v>169.005579594546</v>
+        <v>169.0055795945461</v>
       </c>
       <c r="N18" t="n">
-        <v>182.9388758039454</v>
+        <v>182.9388758039455</v>
       </c>
       <c r="O18" t="n">
         <v>152.7645769268349</v>
       </c>
       <c r="P18" t="n">
-        <v>109.913613615345</v>
+        <v>109.9136136153451</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.69910993293566</v>
+        <v>40.69910993293568</v>
       </c>
       <c r="R18" t="n">
-        <v>40.37397230866594</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>31.07308481493023</v>
       </c>
       <c r="K19" t="n">
-        <v>16.62562724881523</v>
+        <v>183.1459027464732</v>
       </c>
       <c r="L19" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="M19" t="n">
-        <v>45.27334509475885</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="N19" t="n">
-        <v>264.9098272115528</v>
+        <v>49.35582779472776</v>
       </c>
       <c r="O19" t="n">
-        <v>264.9098272115528</v>
+        <v>32.25121887857489</v>
       </c>
       <c r="P19" t="n">
-        <v>192.3074275058957</v>
+        <v>147.4108637735538</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>75.87932905276269</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.96686390557528</v>
+        <v>45.96686390557534</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2055818595706</v>
+        <v>102.2055818595707</v>
       </c>
       <c r="L20" t="n">
-        <v>151.0234914352498</v>
+        <v>151.0234914352499</v>
       </c>
       <c r="M20" t="n">
-        <v>188.8357983217569</v>
+        <v>188.835798321757</v>
       </c>
       <c r="N20" t="n">
-        <v>194.9206270878684</v>
+        <v>194.9206270878686</v>
       </c>
       <c r="O20" t="n">
-        <v>175.3025463044293</v>
+        <v>175.3025463044294</v>
       </c>
       <c r="P20" t="n">
         <v>126.9644952219494</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.7164773477277</v>
+        <v>63.71647734772776</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>15.0223971951476</v>
+        <v>142.3151126376642</v>
       </c>
       <c r="K21" t="n">
-        <v>76.98944334802236</v>
+        <v>76.98944334802242</v>
       </c>
       <c r="L21" t="n">
         <v>133.935597316168</v>
       </c>
       <c r="M21" t="n">
-        <v>169.005579594546</v>
+        <v>169.0055795945461</v>
       </c>
       <c r="N21" t="n">
-        <v>182.9388758039454</v>
+        <v>182.9388758039455</v>
       </c>
       <c r="O21" t="n">
         <v>152.7645769268349</v>
       </c>
       <c r="P21" t="n">
-        <v>109.913613615345</v>
+        <v>109.9136136153451</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.9918253754525</v>
+        <v>40.69910993293568</v>
       </c>
       <c r="R21" t="n">
-        <v>40.37397230866594</v>
+        <v>40.37397230866597</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.0730848149302</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>16.62562724881522</v>
+        <v>183.1459027464732</v>
       </c>
       <c r="L22" t="n">
-        <v>191.4266340582212</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="M22" t="n">
-        <v>264.9098272115526</v>
+        <v>60.92320402241411</v>
       </c>
       <c r="N22" t="n">
-        <v>264.9098272115526</v>
+        <v>49.35582779472776</v>
       </c>
       <c r="O22" t="n">
-        <v>264.9098272115526</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="P22" t="n">
-        <v>15.08105372750313</v>
+        <v>225.6912924974073</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>45.96686390557531</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2055818595706</v>
+        <v>102.2055818595707</v>
       </c>
       <c r="L23" t="n">
         <v>151.0234914352498</v>
@@ -36369,7 +36369,7 @@
         <v>188.835798321757</v>
       </c>
       <c r="N23" t="n">
-        <v>194.9206270878685</v>
+        <v>194.9206270878686</v>
       </c>
       <c r="O23" t="n">
         <v>175.3025463044294</v>
@@ -36378,7 +36378,7 @@
         <v>126.9644952219494</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.71647734772773</v>
+        <v>63.71647734772776</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>15.02239719514762</v>
+        <v>15.02239719514763</v>
       </c>
       <c r="K24" t="n">
-        <v>76.98944334802236</v>
+        <v>76.98944334802239</v>
       </c>
       <c r="L24" t="n">
         <v>133.935597316168</v>
@@ -36448,7 +36448,7 @@
         <v>169.005579594546</v>
       </c>
       <c r="N24" t="n">
-        <v>182.9388758039454</v>
+        <v>182.9388758039455</v>
       </c>
       <c r="O24" t="n">
         <v>152.7645769268349</v>
@@ -36457,10 +36457,10 @@
         <v>109.913613615345</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.9918253754525</v>
+        <v>208.3657976841184</v>
       </c>
       <c r="R24" t="n">
-        <v>40.37397230866594</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>16.62562724881523</v>
+        <v>16.62562724881525</v>
       </c>
       <c r="L25" t="n">
-        <v>222.4997188731513</v>
+        <v>222.4997188731512</v>
       </c>
       <c r="M25" t="n">
         <v>264.9098272115527</v>
@@ -36533,7 +36533,7 @@
         <v>264.9098272115527</v>
       </c>
       <c r="P25" t="n">
-        <v>15.08105372750315</v>
+        <v>15.08105372750316</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.96686390557531</v>
+        <v>45.96686390557534</v>
       </c>
       <c r="K26" t="n">
         <v>102.2055818595707</v>
       </c>
       <c r="L26" t="n">
-        <v>151.0234914352498</v>
+        <v>151.0234914352499</v>
       </c>
       <c r="M26" t="n">
         <v>188.835798321757</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>15.02239719514763</v>
+        <v>15.02239719514765</v>
       </c>
       <c r="K27" t="n">
-        <v>204.282158790539</v>
+        <v>76.98944334802242</v>
       </c>
       <c r="L27" t="n">
         <v>133.935597316168</v>
       </c>
       <c r="M27" t="n">
-        <v>169.005579594546</v>
+        <v>169.0055795945461</v>
       </c>
       <c r="N27" t="n">
         <v>182.9388758039455</v>
@@ -36691,13 +36691,13 @@
         <v>152.7645769268349</v>
       </c>
       <c r="P27" t="n">
-        <v>109.913613615345</v>
+        <v>109.9136136153451</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.69910993293566</v>
+        <v>208.3657976841184</v>
       </c>
       <c r="R27" t="n">
-        <v>40.37397230866596</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>183.1459027464732</v>
+        <v>16.62562724881526</v>
       </c>
       <c r="L28" t="n">
-        <v>40.91019857883308</v>
+        <v>222.4997188731512</v>
       </c>
       <c r="M28" t="n">
         <v>264.9098272115527</v>
       </c>
       <c r="N28" t="n">
-        <v>226.148112518524</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="O28" t="n">
-        <v>32.25121887857487</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="P28" t="n">
-        <v>225.6912924974073</v>
+        <v>15.08105372750317</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.87932905276269</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.96686390557531</v>
+        <v>45.96686390557534</v>
       </c>
       <c r="K29" t="n">
         <v>102.2055818595707</v>
       </c>
       <c r="L29" t="n">
-        <v>151.0234914352498</v>
+        <v>151.0234914352499</v>
       </c>
       <c r="M29" t="n">
         <v>188.835798321757</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>15.02239719514763</v>
+        <v>15.02239719514765</v>
       </c>
       <c r="K30" t="n">
-        <v>76.98944334802239</v>
+        <v>244.6561310992051</v>
       </c>
       <c r="L30" t="n">
         <v>133.935597316168</v>
       </c>
       <c r="M30" t="n">
-        <v>169.005579594546</v>
+        <v>169.0055795945461</v>
       </c>
       <c r="N30" t="n">
-        <v>264.9098272115528</v>
+        <v>182.9388758039455</v>
       </c>
       <c r="O30" t="n">
         <v>152.7645769268349</v>
       </c>
       <c r="P30" t="n">
-        <v>109.913613615345</v>
+        <v>109.9136136153451</v>
       </c>
       <c r="Q30" t="n">
-        <v>86.02087396784543</v>
+        <v>40.69910993293568</v>
       </c>
       <c r="R30" t="n">
-        <v>40.37397230866596</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>16.62562724881525</v>
+        <v>16.62562724881526</v>
       </c>
       <c r="L31" t="n">
-        <v>264.9098272115528</v>
+        <v>222.4997188731512</v>
       </c>
       <c r="M31" t="n">
-        <v>45.27334509475885</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="N31" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="O31" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="P31" t="n">
-        <v>192.3074275058957</v>
+        <v>15.08105372750317</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.96686390557531</v>
+        <v>45.96686390557534</v>
       </c>
       <c r="K32" t="n">
         <v>102.2055818595707</v>
       </c>
       <c r="L32" t="n">
-        <v>151.0234914352498</v>
+        <v>151.0234914352499</v>
       </c>
       <c r="M32" t="n">
         <v>188.835798321757</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6890849463307</v>
+        <v>15.02239719514765</v>
       </c>
       <c r="K33" t="n">
-        <v>76.98944334802239</v>
+        <v>76.98944334802242</v>
       </c>
       <c r="L33" t="n">
         <v>133.935597316168</v>
       </c>
       <c r="M33" t="n">
-        <v>169.005579594546</v>
+        <v>169.0055795945461</v>
       </c>
       <c r="N33" t="n">
         <v>182.9388758039455</v>
@@ -37165,10 +37165,10 @@
         <v>152.7645769268349</v>
       </c>
       <c r="P33" t="n">
-        <v>109.913613615345</v>
+        <v>109.9136136153451</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.69910993293566</v>
+        <v>208.3657976841186</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>183.1459027464732</v>
+        <v>16.62562724881526</v>
       </c>
       <c r="L34" t="n">
-        <v>40.91019857883308</v>
+        <v>222.4997188731514</v>
       </c>
       <c r="M34" t="n">
         <v>264.9098272115528</v>
@@ -37244,7 +37244,7 @@
         <v>264.9098272115528</v>
       </c>
       <c r="P34" t="n">
-        <v>30.15029852416351</v>
+        <v>15.08105372750317</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.96686390557531</v>
+        <v>45.96686390557534</v>
       </c>
       <c r="K35" t="n">
         <v>102.2055818595707</v>
       </c>
       <c r="L35" t="n">
-        <v>151.0234914352498</v>
+        <v>151.0234914352499</v>
       </c>
       <c r="M35" t="n">
         <v>188.835798321757</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>15.02239719514763</v>
+        <v>15.02239719514765</v>
       </c>
       <c r="K36" t="n">
-        <v>204.2821587905393</v>
+        <v>76.98944334802242</v>
       </c>
       <c r="L36" t="n">
         <v>133.935597316168</v>
       </c>
       <c r="M36" t="n">
-        <v>169.005579594546</v>
+        <v>169.0055795945461</v>
       </c>
       <c r="N36" t="n">
         <v>182.9388758039455</v>
@@ -37402,13 +37402,13 @@
         <v>152.7645769268349</v>
       </c>
       <c r="P36" t="n">
-        <v>109.913613615345</v>
+        <v>109.9136136153451</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.69910993293566</v>
+        <v>167.9918253754524</v>
       </c>
       <c r="R36" t="n">
-        <v>40.37397230866596</v>
+        <v>40.37397230866597</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>31.07308481493022</v>
+        <v>31.07308481493023</v>
       </c>
       <c r="K37" t="n">
-        <v>183.1459027464732</v>
+        <v>16.62562724881526</v>
       </c>
       <c r="L37" t="n">
-        <v>46.95472812363704</v>
+        <v>115.5473050054584</v>
       </c>
       <c r="M37" t="n">
         <v>264.9098272115527</v>
@@ -37478,13 +37478,13 @@
         <v>264.9098272115527</v>
       </c>
       <c r="O37" t="n">
-        <v>32.25121887857487</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="P37" t="n">
-        <v>225.6912924974073</v>
+        <v>15.08105372750317</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>75.87932905276269</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.96686390557531</v>
+        <v>45.96686390557534</v>
       </c>
       <c r="K38" t="n">
         <v>102.2055818595707</v>
       </c>
       <c r="L38" t="n">
-        <v>151.0234914352498</v>
+        <v>151.0234914352499</v>
       </c>
       <c r="M38" t="n">
         <v>188.835798321757</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>15.02239719514763</v>
+        <v>15.02239719514765</v>
       </c>
       <c r="K39" t="n">
-        <v>76.98944334802239</v>
+        <v>76.98944334802242</v>
       </c>
       <c r="L39" t="n">
         <v>133.935597316168</v>
       </c>
       <c r="M39" t="n">
-        <v>169.005579594546</v>
+        <v>169.0055795945461</v>
       </c>
       <c r="N39" t="n">
         <v>182.9388758039455</v>
@@ -37639,10 +37639,10 @@
         <v>152.7645769268349</v>
       </c>
       <c r="P39" t="n">
-        <v>109.913613615345</v>
+        <v>109.9136136153451</v>
       </c>
       <c r="Q39" t="n">
-        <v>208.3657976841186</v>
+        <v>208.3657976841184</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>183.1459027464732</v>
       </c>
       <c r="L40" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="M40" t="n">
-        <v>264.9098272115528</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="N40" t="n">
-        <v>55.97944337549344</v>
+        <v>264.9098272115527</v>
       </c>
       <c r="O40" t="n">
-        <v>264.9098272115528</v>
+        <v>55.97944337549332</v>
       </c>
       <c r="P40" t="n">
-        <v>15.08105372750316</v>
+        <v>15.08105372750317</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>175.3025463044294</v>
       </c>
       <c r="P41" t="n">
-        <v>126.9644952219498</v>
+        <v>126.9644952219494</v>
       </c>
       <c r="Q41" t="n">
         <v>63.71647734772776</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>15.02239719514763</v>
+        <v>142.3151126376647</v>
       </c>
       <c r="K42" t="n">
-        <v>204.2821587905395</v>
+        <v>76.98944334802239</v>
       </c>
       <c r="L42" t="n">
         <v>133.935597316168</v>
@@ -37940,22 +37940,22 @@
         <v>31.07308481493022</v>
       </c>
       <c r="K43" t="n">
-        <v>183.1459027464732</v>
+        <v>91.26273367544073</v>
       </c>
       <c r="L43" t="n">
-        <v>186.6293984876995</v>
+        <v>40.91019857883308</v>
       </c>
       <c r="M43" t="n">
         <v>264.9098272115528</v>
       </c>
       <c r="N43" t="n">
-        <v>49.35582779472776</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="O43" t="n">
-        <v>32.25121887857487</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="P43" t="n">
-        <v>225.6912924974073</v>
+        <v>15.08105372750316</v>
       </c>
       <c r="Q43" t="n">
         <v>75.87932905276269</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>15.02239719514763</v>
+        <v>182.6890849463307</v>
       </c>
       <c r="K45" t="n">
         <v>76.98944334802239</v>
       </c>
       <c r="L45" t="n">
-        <v>264.9098272115528</v>
+        <v>133.935597316168</v>
       </c>
       <c r="M45" t="n">
         <v>169.005579594546</v>
       </c>
       <c r="N45" t="n">
-        <v>219.6313336597437</v>
+        <v>182.9388758039455</v>
       </c>
       <c r="O45" t="n">
         <v>152.7645769268349</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>183.1459027464732</v>
+        <v>16.62562724881525</v>
       </c>
       <c r="L46" t="n">
-        <v>217.7024833026298</v>
+        <v>222.4997188731514</v>
       </c>
       <c r="M46" t="n">
         <v>264.9098272115528</v>
       </c>
       <c r="N46" t="n">
-        <v>49.35582779472776</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="O46" t="n">
-        <v>32.25121887857487</v>
+        <v>264.9098272115528</v>
       </c>
       <c r="P46" t="n">
-        <v>225.6912924974073</v>
+        <v>15.08105372750316</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.87932905276269</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
